--- a/examples/for_equinor/for_equinor-monopile/15mw/20m/outputs/equinor_turb_output.xlsx
+++ b/examples/for_equinor/for_equinor-monopile/15mw/20m/outputs/equinor_turb_output.xlsx
@@ -2352,7 +2352,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[6.00000003]</t>
+          <t>[6.00000255]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -5611,8 +5611,8 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[[0.05045858 0.05942742 0.14509201 0.05637616 0.13109693 0.04393484
-  0.12102924]]</t>
+          <t>[[0.05031772 0.0595708  0.14492055 0.05628306 0.13110318 0.04395645
+  0.12123106]]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>[2.66845914]</t>
+          <t>[2.66842097]</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.99992573  6.00000003]</t>
+          <t>[10.         10.         10.         10.          6.00000255]</t>
         </is>
       </c>
       <c r="E391" t="inlineStr"/>
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>[[0.08000787 0.05507333 0.01943857 0.008654   0.01654327]]</t>
+          <t>[[0.08002922 0.055112   0.01937491 0.00871629 0.01648097]]</t>
         </is>
       </c>
       <c r="E413" t="inlineStr"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.99992573  6.00000003]</t>
+          <t>[10.         10.         10.         10.          6.00000255]</t>
         </is>
       </c>
       <c r="E414" t="inlineStr"/>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[1113.31015606]</t>
+          <t>[1113.32544893]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[3232.49895104]</t>
+          <t>[3232.48283479]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[1113.31015606]</t>
+          <t>[1113.32544893]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[1280.55397458]</t>
+          <t>[1280.65795703]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -14102,7 +14102,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>[654.7729996]</t>
+          <t>[654.77306541]</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[1371.3916386]</t>
+          <t>[1371.28166132]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[3623382.66878689]</t>
+          <t>[3623140.92507672]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>[85.43875993]</t>
+          <t>[85.43874957]</t>
         </is>
       </c>
       <c r="E543" t="inlineStr"/>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[7.71700592e-06]</t>
+          <t>[7.71694436e-06]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>[0.         4.87500001 1.875     ]</t>
+          <t>[0.         4.87500128 1.875     ]</t>
         </is>
       </c>
       <c r="E666" t="inlineStr"/>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>[ 0.         -4.87500001  1.875     ]</t>
+          <t>[ 0.         -4.87500128  1.875     ]</t>
         </is>
       </c>
       <c r="E669" t="inlineStr"/>
@@ -17226,7 +17226,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>[25235.35231712]</t>
+          <t>[25235.37097119]</t>
         </is>
       </c>
       <c r="E671" t="inlineStr"/>
@@ -17295,7 +17295,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>[33954.33612133]</t>
+          <t>[33954.34842682]</t>
         </is>
       </c>
       <c r="E674" t="inlineStr"/>
@@ -17318,7 +17318,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>[-0.88533714  0.          2.40314516]</t>
+          <t>[-0.88533706  0.          2.40314505]</t>
         </is>
       </c>
       <c r="E675" t="inlineStr"/>
@@ -17341,8 +17341,8 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>[388100.95160196 426951.50636235 247988.45378786      0.
-  87515.58725275      0.        ]</t>
+          <t>[388101.17021016 426951.71717294 247988.69426676      0.
+  87515.58347232      0.        ]</t>
         </is>
       </c>
       <c r="E676" t="inlineStr"/>
@@ -17434,7 +17434,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>[41472.00041014]</t>
+          <t>[41472.03526527]</t>
         </is>
       </c>
       <c r="E680" t="inlineStr"/>
@@ -17480,7 +17480,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>[497669.53944346 497669.53944346 995328.01968682]</t>
+          <t>[497670.37597145 497670.37597145 995329.6927335 ]</t>
         </is>
       </c>
       <c r="E682" t="inlineStr"/>
@@ -17666,8 +17666,8 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[-3.00000001 -3.0079064  -3.03146459 -3.07019501 -3.12330923 -3.18972599
- -3.26809324 -3.35681564 -3.45408707 -3.55792736 -3.66622262 -3.77676827]</t>
+          <t>[-3.00000128 -3.00790764 -3.0314658  -3.07019616 -3.12331029 -3.18972694
+ -3.26809407 -3.35681633 -3.4540876  -3.55792772 -3.6662228  -3.77676827]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -17714,8 +17714,8 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>[ 3.00000001  2.93102229  2.72549328  2.38759699  1.92421199  1.34477148
-  0.66107118 -0.11297072 -0.96159698 -1.86753201 -2.81233359 -3.77676827]</t>
+          <t>[ 3.00000128  2.93102353  2.72549449  2.38759813  1.92421305  1.34477243
+  0.66107201 -0.11297004 -0.96159646 -1.86753166 -2.81233341 -3.77676827]</t>
         </is>
       </c>
       <c r="E692" t="inlineStr"/>
@@ -17762,8 +17762,8 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>[6.00000003 5.94717587 5.79022714 5.53378085 5.18576572 4.75786353
- 4.26646633 3.73467993 3.19644644 2.70430582 2.33903815 2.2       ]</t>
+          <t>[6.00000255 5.94717837 5.79022955 5.53378312 5.18576779 4.75786535
+ 4.26646785 3.73468112 3.19644725 2.70430627 2.33903828 2.2       ]</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
@@ -17978,7 +17978,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>[136822.76486888]</t>
+          <t>[136822.81837808]</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[654772.99959578]</t>
+          <t>[654773.06541047]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
@@ -18185,7 +18185,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>[-3.85537286 -0.13886394  4.08542016]</t>
+          <t>[-3.85537248 -0.13886396  4.08541979]</t>
         </is>
       </c>
       <c r="E712" t="inlineStr"/>
@@ -18208,8 +18208,8 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[2.01667986e+07 2.92795702e+07 1.79419947e+07 5.41567879e+02
- 1.20568460e+07 1.69909286e+05]</t>
+          <t>[2.01668003e+07 2.92795713e+07 1.79419972e+07 5.41568672e+02
+ 1.20568459e+07 1.69909329e+05]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr"/>
@@ -18257,8 +18257,8 @@
         <is>
           <t>[  0.           0.           0.           0.           0.
    0.           0.           0.           0.           0.
-   0.           0.           0.         664.63608165 782.92813985
- 862.16990375 894.50127376 923.56241796 950.04387662]</t>
+   0.           0.           0.         664.63608167 782.92813988
+ 862.16990379 894.50127382 923.56241806 950.04387675]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -18402,10 +18402,10 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          63274.56438251
-  63567.52329466  64449.93152488  65932.48512269  68033.35918549
-  70778.7656079   74203.80685615  83285.51715675  95797.25155505
- 112544.89762894      0.              0.              0.
+          <t>[     0.              0.              0.          63274.56439359
+  63567.52330231  64449.93152909  65932.48512338  68033.35918758
+  70778.76561151  74203.80686143  83285.51716102  95797.25155807
+ 112544.89763027      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -18824,11 +18824,11 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          63274.56438251
-  63567.52329466  64449.93152488  65932.48512269  68033.35918549
-  70778.7656079   74203.80685615  83285.51715675  95797.25155505
- 112544.89762894    664.63608165    782.92813985    862.16990375
-    894.50127376    923.56241796    950.04387662]</t>
+          <t>[     0.              0.              0.          63274.56439359
+  63567.52330231  64449.93152909  65932.48512338  68033.35918758
+  70778.76561151  74203.80686143  83285.51716102  95797.25155807
+ 112544.89763027    664.63608167    782.92813988    862.16990379
+    894.50127382    923.56241806    950.04387675]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -18970,11 +18970,11 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -63274.56438251
-  -63567.52329466  -64449.93152488  -65932.48512269  -68033.35918549
-  -70778.7656079   -74203.80685615  -83285.51715675  -95797.25155505
- -112544.89762894    -664.63608165    -782.92813985    -862.16990375
-    -894.50127376    -923.56241796    -950.04387662]</t>
+          <t>[      0.               0.               0.          -63274.56439359
+  -63567.52330231  -64449.93152909  -65932.48512338  -68033.35918758
+  -70778.76561151  -74203.80686143  -83285.51716102  -95797.25155807
+ -112544.89763027    -664.63608167    -782.92813988    -862.16990379
+    -894.50127382    -923.56241806    -950.04387675]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19047,7 +19047,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>[0.054943   0.10225972 0.10073409 0.09373654 0.08751588 0.08248204]</t>
+          <t>[0.05494426 0.10224567 0.1006018  0.09369312 0.08752982 0.08259375]</t>
         </is>
       </c>
       <c r="E747" t="inlineStr"/>
@@ -19136,7 +19136,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>[0.054943   0.10225972 0.10073409 0.09373654 0.08751588 0.08248204]</t>
+          <t>[0.05494426 0.10224567 0.1006018  0.09369312 0.08752982 0.08259375]</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
@@ -19399,9 +19399,9 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>[0.054943   0.054943   0.054943   0.10225972 0.10225972 0.10225972
- 0.10073409 0.10073409 0.10073409 0.09373654 0.09373654 0.09373654
- 0.08751588 0.08751588 0.08751588 0.08248204 0.08248204 0.08248204]</t>
+          <t>[0.05494426 0.05494426 0.05494426 0.10224567 0.10224567 0.10224567
+ 0.1006018  0.1006018  0.1006018  0.09369312 0.09369312 0.09369312
+ 0.08752982 0.08752982 0.08752982 0.08259375 0.08259375 0.08259375]</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -19565,7 +19565,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[1271391.6386005]</t>
+          <t>[1271281.66132225]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -19588,7 +19588,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[3123382.66878689]</t>
+          <t>[3123140.92507672]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>[36.04767429]</t>
+          <t>[36.05011418]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -19634,7 +19634,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[2.07326458e+09 2.07326458e+09 3.12794715e+07 0.00000000e+00
+          <t>[2.07345247e+09 2.07345247e+09 3.12768590e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -19658,7 +19658,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>[1280553.97458103]</t>
+          <t>[1280657.95702876]</t>
         </is>
       </c>
       <c r="E773" t="inlineStr"/>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>[3418305.91604409]</t>
+          <t>[3418534.52261206]</t>
         </is>
       </c>
       <c r="E774" t="inlineStr"/>
@@ -19770,9 +19770,9 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[1.83676377 1.83676377 1.83676377 3.40231319 3.40231319 3.40231319
- 3.35207007 3.35207007 3.35207007 3.12142181 3.12142181 3.12142181
- 2.91610414 2.91610414 2.91610414 2.74976784 2.74976784 2.74976784]</t>
+          <t>[1.83680554 1.83680554 1.83680554 3.40185078 3.40185078 3.40185078
+ 3.34771288 3.34771288 3.34771288 3.11998944 3.11998944 3.11998944
+ 2.91656434 2.91656434 2.91656434 2.7534612  2.7534612  2.7534612 ]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -19795,9 +19795,9 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[1.04487699 1.04487699 1.04487699 1.93976108 1.93976108 1.93976108
- 1.91097684 1.91097684 1.91097684 1.77889489 1.77889489 1.77889489
- 1.66139573 1.66139573 1.66139573 1.56625757 1.56625757 1.56625756]</t>
+          <t>[1.04490081 1.04490081 1.04490081 1.93949615 1.93949615 1.93949615
+ 1.90848082 1.90848082 1.90848082 1.77807492 1.77807492 1.77807492
+ 1.66165901 1.66165901 1.66165901 1.56836952 1.56836952 1.56836952]</t>
         </is>
       </c>
       <c r="E778" t="inlineStr"/>
@@ -19820,9 +19820,9 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[1.04487699 1.04487699 1.04487699 1.93976108 1.93976108 1.93976108
- 1.91097684 1.91097684 1.91097684 1.77889489 1.77889489 1.77889489
- 1.66139573 1.66139573 1.66139573 1.56625757 1.56625757 1.56625756]</t>
+          <t>[1.04490081 1.04490081 1.04490081 1.93949615 1.93949615 1.93949615
+ 1.90848082 1.90848082 1.90848082 1.77807492 1.77807492 1.77807492
+ 1.66165901 1.66165901 1.66165901 1.56836952 1.56836952 1.56836952]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -19845,9 +19845,9 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[22.70864    22.70864    22.70864    41.66801039 41.6680104  41.6680104
- 41.06521026 41.06521026 41.06521026 38.29315101 38.29315101 38.29315102
- 35.81887182 35.81887182 35.81887181 33.80975869 33.80975868 33.80975868]</t>
+          <t>[22.70915074 22.70915074 22.70915074 41.66246433 41.66246433 41.66246433
+ 41.01291651 41.01291651 41.01291651 38.27591127 38.27591127 38.27591127
+ 35.82442471 35.82442471 35.82442471 33.85441411 33.85441411 33.85441411]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -19870,9 +19870,9 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[22.70864    22.70864    22.70864    41.66801039 41.6680104  41.6680104
- 41.06521026 41.06521026 41.06521026 38.29315101 38.29315101 38.29315102
- 35.81887182 35.81887182 35.81887181 33.80975869 33.80975868 33.80975868]</t>
+          <t>[22.70915074 22.70915074 22.70915074 41.66246433 41.66246433 41.66246433
+ 41.01291651 41.01291651 41.01291651 38.27591127 38.27591127 38.27591127
+ 35.82442471 35.82442471 35.82442471 33.85441411 33.85441411 33.85441411]</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
@@ -19895,9 +19895,9 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[45.41728    45.41728    45.41727999 83.33602078 83.33602079 83.3360208
- 82.13042053 82.13042052 82.13042052 76.58630203 76.58630203 76.58630203
- 71.63774363 71.63774363 71.63774363 67.61951737 67.61951737 67.61951736]</t>
+          <t>[45.41830148 45.41830148 45.41830148 83.32492866 83.32492866 83.32492866
+ 82.02583302 82.02583302 82.02583302 76.55182254 76.55182254 76.55182254
+ 71.64884942 71.64884942 71.64884942 67.70882823 67.70882823 67.70882823]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20092,8 +20092,8 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>[2.25504587 2.25504587 2.25504587 1.24769448 1.24769448 1.24769448
- 0.47150259 0.47150142 0.47150025 0.39473397 0.33826786 0.28180174]</t>
+          <t>[2.25604096 2.25604096 2.25604096 1.24727763 1.24727763 1.24727763
+ 0.47148028 0.47148028 0.47148028 0.39473641 0.33826931 0.28180221]</t>
         </is>
       </c>
       <c r="E789" t="inlineStr"/>
@@ -20116,8 +20116,8 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>[1.28357024 1.28357024 1.28357024 0.70920267 0.70920267 0.70920267
- 0.26772904 0.26772837 0.26772771 0.22413278 0.19209005 0.16004736]</t>
+          <t>[1.28413844 1.28413844 1.28413844 0.70896533 0.70896533 0.70896533
+ 0.26771636 0.26771636 0.26771636 0.22413416 0.19209087 0.16004762]</t>
         </is>
       </c>
       <c r="E790" t="inlineStr"/>
@@ -20140,8 +20140,8 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[1.28357024 1.28357024 1.28357024 0.70920267 0.70920267 0.70920267
- 0.26772904 0.26772837 0.26772771 0.22413278 0.19209005 0.16004736]</t>
+          <t>[1.28413844 1.28413844 1.28413844 0.70896533 0.70896533 0.70896533
+ 0.26771636 0.26771636 0.26771636 0.22413416 0.19209087 0.16004762]</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -20164,8 +20164,8 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[27.80987722 27.80987721 27.8098772  15.4804038  15.4804038  15.48040381
-  5.87723392  5.8771902   5.87714649  4.2865692   2.69760779  1.55965343]</t>
+          <t>[27.82198203 27.82198203 27.82198203 15.47527056 15.47527056 15.47527056
+  5.87697124  5.87697124  5.87697124  4.28665295  2.69764529  1.55966281]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20188,8 +20188,8 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>[27.80987722 27.80987721 27.8098772  15.4804038  15.4804038  15.48040381
-  5.87723392  5.8771902   5.87714649  4.2865692   2.69760779  1.55965343]</t>
+          <t>[27.82198203 27.82198203 27.82198203 15.47527056 15.47527056 15.47527056
+  5.87697124  5.87697124  5.87697124  4.28665295  2.69764529  1.55966281]</t>
         </is>
       </c>
       <c r="E793" t="inlineStr"/>
@@ -20212,8 +20212,8 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>[55.61975444 55.61975442 55.6197544  30.96080759 30.9608076  30.96080762
- 11.75446783 11.75438041 11.75429299  8.5731384   5.39521558  3.11930686]</t>
+          <t>[55.64396406 55.64396406 55.64396406 30.95054111 30.95054111 30.95054111
+ 11.75394248 11.75394248 11.75394248  8.57330591  5.39529059  3.11932561]</t>
         </is>
       </c>
       <c r="E794" t="inlineStr"/>
@@ -20308,8 +20308,8 @@
       <c r="D798" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.          9.99997524  9.99995049  9.99992573  8.66661716  7.3333086
-  6.00000003]</t>
+ 10.         10.         10.         10.          8.66666752  7.33333503
+  6.00000255]</t>
         </is>
       </c>
       <c r="E798" t="inlineStr"/>
@@ -20332,8 +20332,8 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[0.0675406  0.0675406  0.0675406  0.03725595 0.03725595 0.03725595
- 0.01404628 0.01404628 0.01404628 0.01259864 0.01259864 0.01259864]</t>
+          <t>[0.06757061 0.06757061 0.06757061 0.03724346 0.03724346 0.03724346
+ 0.0140456  0.0140456  0.0140456  0.01259863 0.01259863 0.01259863]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -20438,9 +20438,9 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>[[ 2937712.6186812 ]
+          <t>[[ 2937712.61868122]
  [    8738.15973295]
- [-6848965.00832182]]</t>
+ [-6848965.66278679]]</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -20463,9 +20463,9 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>[[  -693049.20165717]
- [-10698162.27782797]
- [  6202627.73946186]]</t>
+          <t>[[  -693049.2021034 ]
+ [-10698162.39012366]
+ [  6202627.73777136]]</t>
         </is>
       </c>
       <c r="E804" t="inlineStr"/>
@@ -20490,7 +20490,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-1.95971748e+07]]</t>
+ [-1.95981964e+07]]</t>
         </is>
       </c>
       <c r="E805" t="inlineStr"/>
@@ -20513,8 +20513,8 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>[[-1.98319860e+06]
- [ 4.14798153e+08]
+          <t>[[-1.98319674e+06]
+ [ 4.14797583e+08]
  [ 6.20262774e+06]]</t>
         </is>
       </c>
@@ -20538,7 +20538,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>[1249999.99966499 1249999.99966499 2499999.99932998       0.
+          <t>[1249999.99999968 1249999.99999968 2499999.99999936       0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -20631,7 +20631,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>[2228975.27878078]</t>
+          <t>[2229079.32704321]</t>
         </is>
       </c>
       <c r="E811" t="inlineStr"/>
@@ -20654,7 +20654,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>[-2.87556041e+00 -4.07919986e-02  9.57775582e+01]</t>
+          <t>[-2.87542619e+00 -4.07901051e-02  9.57706680e+01]</t>
         </is>
       </c>
       <c r="E812" t="inlineStr"/>
@@ -20677,8 +20677,8 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>[2.82800731e+10 2.81491400e+10 2.97425717e+08 5.41567879e+02
- 1.42357739e+07 1.69909286e+05]</t>
+          <t>[2.82795308e+10 2.81485977e+10 2.97428230e+08 5.41568672e+02
+ 1.42357739e+07 1.69909329e+05]</t>
         </is>
       </c>
       <c r="E813" t="inlineStr"/>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>[948421.30419975]</t>
+          <t>[948421.37001445]</t>
         </is>
       </c>
       <c r="E814" t="inlineStr"/>
@@ -20724,8 +20724,8 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>[4.16138016e+08 2.85204923e+08 2.66307067e+08 5.41567879e+02
- 1.42357739e+07 1.69909286e+05]</t>
+          <t>[4.16138018e+08 2.85204924e+08 2.66307069e+08 5.41568672e+02
+ 1.42357739e+07 1.69909329e+05]</t>
         </is>
       </c>
       <c r="E815" t="inlineStr"/>
@@ -20748,7 +20748,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>[-6.75812852 -0.09586916  4.59772555]</t>
+          <t>[-6.75812805 -0.09586918  4.59772526]</t>
         </is>
       </c>
       <c r="E816" t="inlineStr"/>
@@ -20856,22 +20856,22 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -63274.56438251]
- [ -63567.52329466]
- [ -64449.93152488]
- [ -65932.48512269]
- [ -68033.35918549]
- [ -70778.7656079 ]
- [ -74203.80685615]
- [ -83285.51715675]
- [ -95797.25155505]
- [-112544.89762894]
- [   -664.63608165]
- [   -782.92813985]
- [   -862.16990375]
- [   -894.50127376]
- [   -923.56241796]
- [   -950.04387662]]</t>
+ [ -63274.56439359]
+ [ -63567.52330231]
+ [ -64449.93152909]
+ [ -65932.48512338]
+ [ -68033.35918758]
+ [ -70778.76561151]
+ [ -74203.80686143]
+ [ -83285.51716102]
+ [ -95797.25155807]
+ [-112544.89763027]
+ [   -664.63608167]
+ [   -782.92813988]
+ [   -862.16990379]
+ [   -894.50127382]
+ [   -923.56241806]
+ [   -950.04387675]]</t>
         </is>
       </c>
       <c r="E819" t="inlineStr"/>
@@ -20964,19 +20964,19 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>[[ -950.04387671]
- [-1091.35415377]
- [-1192.48656142]
- [-1273.22823698]
- [-1367.71014579]
- [-1446.51097802]
+          <t>[[ -950.04387675]
+ [-1091.35415395]
+ [-1192.48656177]
+ [-1273.22823752]
+ [-1367.71014618]
+ [-1446.51097822]
  [-1514.7639639 ]
- [-1551.90527311]
- [-1586.7282947 ]
- [-1619.55783383]
- [-1409.12044769]
- [-1207.07323401]
- [-1007.55623723]]</t>
+ [-1551.909589  ]
+ [-1586.73717482]
+ [-1619.57150793]
+ [-1409.12909086]
+ [-1207.07754767]
+ [-1007.55664453]]</t>
         </is>
       </c>
       <c r="E822" t="inlineStr"/>
@@ -20999,24 +20999,24 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>[[-33707784.19330332]
- [-32302855.17876101]
- [-30584717.09191235]
- [-30046337.70641644]
- [-29506988.6430056 ]
- [-28965688.4868498 ]
- [-28427837.11148568]
- [-27885987.55414706]
- [-27339047.38594536]
- [-26283338.05439224]
- [-25191999.52569795]
- [-24052383.00316959]
- [-23122084.06420719]
- [-22376192.36819787]
- [-21629974.74119956]
- [-21277978.79114738]
- [-20925932.19221902]
- [-20573839.77064421]]</t>
+          <t>[[-33707695.67735592]
+ [-32302734.58155911]
+ [-30584564.41345604]
+ [-30046243.98724103]
+ [-29506953.88311113]
+ [-28965712.68623503]
+ [-28428416.74751568]
+ [-27887122.62682189]
+ [-27340737.89526493]
+ [-26285393.7473453 ]
+ [-25194420.40228355]
+ [-24055169.06338858]
+ [-23124752.78045433]
+ [-22378743.74047332]
+ [-21632408.76950346]
+ [-21279942.00709117]
+ [-20927424.59580235]
+ [-20574861.36186709]]</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
@@ -21039,24 +21039,24 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>[[ -3022683.81822393]
- [-10155159.76403004]
- [-13182228.94560681]
- [  2938015.11213329]
- [  2938042.08376637]
- [  2938069.51820088]
- [  2938093.31416695]
- [  2938122.23126991]
- [  2938152.12443974]
- [  2938637.45799361]
- [  2938775.3380753 ]
- [  2938930.80892414]
- [  2938877.71415769]
- [  2938661.59664617]
- [  2938734.28316431]
- [  2938220.34387794]
- [  2938237.8221364 ]
- [  2938255.08055473]]</t>
+          <t>[[ -3022751.99343441]
+ [-10155243.25962259]
+ [-13182166.85664291]
+ [  2938015.07744814]
+ [  2938042.04971656]
+ [  2938069.48480083]
+ [  2938092.95140519]
+ [  2938121.87526243]
+ [  2938151.77578596]
+ [  2938637.37243667]
+ [  2938775.27249071]
+ [  2938930.76988777]
+ [  2938878.16832109]
+ [  2938661.97214443]
+ [  2938734.65886749]
+ [  2938221.10522048]
+ [  2938238.58375339]
+ [  2938255.84243405]]</t>
         </is>
       </c>
       <c r="E824" t="inlineStr"/>
@@ -21079,24 +21079,24 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>[[-13565.45454789]
- [-45891.14168375]
- [-61204.80247896]
- [  8739.50310424]
- [  8739.62484268]
- [  8739.7490387 ]
- [  8739.85731956]
- [  8739.98896908]
- [  8740.12542411]
- [  8742.3050297 ]
- [  8742.93905853]
- [  8743.65694449]
- [  8743.43503548]
- [  8742.47256375]
- [  8742.82039016]
- [  8740.48219071]
- [  8740.56699742]
- [  8740.65113969]]</t>
+          <t>[[-13565.76322262]
+ [-45891.53145328]
+ [-61204.54920734]
+ [  8739.50294932]
+ [  8739.62469066]
+ [  8739.74888964]
+ [  8739.85569421]
+ [  8739.98737449]
+ [  8740.12386311]
+ [  8742.30466025]
+ [  8742.93878099]
+ [  8743.65678959]
+ [  8743.43711803]
+ [  8742.47428371]
+ [  8742.82211117]
+ [  8740.48567971]
+ [  8740.57048778]
+ [  8740.65463135]]</t>
         </is>
       </c>
       <c r="E825" t="inlineStr"/>
@@ -21119,24 +21119,24 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>[[ -114379.79978299]
- [ -760412.48148951]
- [-1864870.01526144]
- [-2215693.95701744]
- [-2200858.70468986]
- [-2186006.67929986]
- [-2171138.63965187]
- [-2156255.37523708]
- [-2141357.8645557 ]
- [-2111513.53598096]
- [-2081616.26235544]
- [-2051674.87763075]
- [-2021695.88777201]
- [-1991677.30971353]
- [-1961618.38845912]
- [-1946579.00017367]
- [-1931530.4203178 ]
- [-1916473.25910389]]</t>
+          <t>[[ -114383.15545796]
+ [ -760423.01253771]
+ [-1864875.80884505]
+ [-2215694.50838822]
+ [-2200859.25544289]
+ [-2186007.22606563]
+ [-2171139.1635457 ]
+ [-2156255.8437805 ]
+ [-2141358.24566064]
+ [-2111513.6879362 ]
+ [-2081616.14011581]
+ [-2051674.43778389]
+ [-2021695.11362345]
+ [-1991676.21746484]
+ [-1961616.99244911]
+ [-1946577.47235152]
+ [-1931528.79321148]
+ [-1916471.5650894 ]]</t>
         </is>
       </c>
       <c r="E826" t="inlineStr"/>
@@ -21159,24 +21159,24 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>[[2.58318530e+07]
- [1.70631894e+08]
- [4.13814890e+08]
- [4.90759360e+08]
- [4.85802084e+08]
- [4.80841127e+08]
- [4.75876666e+08]
- [4.70908898e+08]
- [4.65938051e+08]
- [4.55985679e+08]
- [4.46022072e+08]
- [4.36049272e+08]
- [4.26068771e+08]
- [4.16080260e+08]
- [4.06083641e+08]
- [4.01083440e+08]
- [3.96081442e+08]
- [3.91077789e+08]]</t>
+          <t>[[2.58326088e+07]
+ [1.70634233e+08]
+ [4.13816099e+08]
+ [4.90759386e+08]
+ [4.85802111e+08]
+ [4.80841153e+08]
+ [4.75876687e+08]
+ [4.70908905e+08]
+ [4.65938039e+08]
+ [4.55985617e+08]
+ [4.46021949e+08]
+ [4.36049079e+08]
+ [4.26068505e+08]
+ [4.16079925e+08]
+ [4.06083240e+08]
+ [4.01083010e+08]
+ [3.96080990e+08]
+ [3.91077323e+08]]</t>
         </is>
       </c>
       <c r="E827" t="inlineStr"/>
@@ -21199,24 +21199,24 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>[[ 884712.66233968]
- [1998730.00147391]
- [3630801.21009635]
- [6203330.94444827]
- [6203318.56463018]
- [6203306.16256427]
- [6203303.69888284]
- [6203291.14594146]
- [6203278.49973769]
- [6203312.88275056]
- [6203286.42283173]
- [6203259.07015282]
- [6203272.95199999]
- [6203247.99395062]
- [6203227.98332171]
- [6203243.06589865]
- [6203233.05139084]
- [6203223.03547439]]</t>
+          <t>[[ 884722.48172393]
+ [1998747.00968068]
+ [3630818.12304746]
+ [6203331.03481993]
+ [6203318.65467501]
+ [6203306.25227929]
+ [6203304.57759368]
+ [6203292.02129171]
+ [6203279.37160592]
+ [6203313.23804496]
+ [6203286.77513194]
+ [6203259.41904878]
+ [6203272.923187  ]
+ [6203247.96592979]
+ [6203227.95531209]
+ [6203242.3079473 ]
+ [6203232.29349742]
+ [6203222.27764085]]</t>
         </is>
       </c>
       <c r="E828" t="inlineStr"/>
@@ -21272,8 +21272,8 @@
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
- 10.          9.99997524  9.99995049  9.99992573  8.66661716  7.3333086
-  6.00000003]</t>
+ 10.         10.         10.         10.          8.66666752  7.33333503
+  6.00000255]</t>
         </is>
       </c>
       <c r="E830" t="inlineStr"/>
@@ -21296,11 +21296,11 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>[0.054943   0.054943   0.054943   0.10225972 0.10225972 0.10225972
- 0.10073409 0.10073409 0.10073409 0.09373654 0.09373654 0.09373654
- 0.08751588 0.08751588 0.08751588 0.08248204 0.08248204 0.08248204
- 0.0675406  0.0675406  0.0675406  0.03725595 0.03725595 0.03725595
- 0.01404628 0.01404628 0.01404628 0.01259864 0.01259864 0.01259864]</t>
+          <t>[0.05494426 0.05494426 0.05494426 0.10224567 0.10224567 0.10224567
+ 0.1006018  0.1006018  0.1006018  0.09369312 0.09369312 0.09369312
+ 0.08752982 0.08752982 0.08752982 0.08259375 0.08259375 0.08259375
+ 0.06757061 0.06757061 0.06757061 0.03724346 0.03724346 0.03724346
+ 0.0140456  0.0140456  0.0140456  0.01259863 0.01259863 0.01259863]</t>
         </is>
       </c>
       <c r="E831" t="inlineStr"/>
@@ -21448,11 +21448,11 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>[1.83676377 1.83676377 1.83676377 3.40231319 3.40231319 3.40231319
- 3.35207007 3.35207007 3.35207007 3.12142181 3.12142181 3.12142181
- 2.91610414 2.91610414 2.91610414 2.74976784 2.74976784 2.74976784
- 2.25504587 2.25504587 2.25504587 1.24769448 1.24769448 1.24769448
- 0.47150259 0.47150142 0.47150025 0.39473397 0.33826786 0.28180174]</t>
+          <t>[1.83680554 1.83680554 1.83680554 3.40185078 3.40185078 3.40185078
+ 3.34771288 3.34771288 3.34771288 3.11998944 3.11998944 3.11998944
+ 2.91656434 2.91656434 2.91656434 2.7534612  2.7534612  2.7534612
+ 2.25604096 2.25604096 2.25604096 1.24727763 1.24727763 1.24727763
+ 0.47148028 0.47148028 0.47148028 0.39473641 0.33826931 0.28180221]</t>
         </is>
       </c>
       <c r="E837" t="inlineStr"/>
@@ -21475,11 +21475,11 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>[1.04487699 1.04487699 1.04487699 1.93976108 1.93976108 1.93976108
- 1.91097684 1.91097684 1.91097684 1.77889489 1.77889489 1.77889489
- 1.66139573 1.66139573 1.66139573 1.56625757 1.56625757 1.56625756
- 1.28357024 1.28357024 1.28357024 0.70920267 0.70920267 0.70920267
- 0.26772904 0.26772837 0.26772771 0.22413278 0.19209005 0.16004736]</t>
+          <t>[1.04490081 1.04490081 1.04490081 1.93949615 1.93949615 1.93949615
+ 1.90848082 1.90848082 1.90848082 1.77807492 1.77807492 1.77807492
+ 1.66165901 1.66165901 1.66165901 1.56836952 1.56836952 1.56836952
+ 1.28413844 1.28413844 1.28413844 0.70896533 0.70896533 0.70896533
+ 0.26771636 0.26771636 0.26771636 0.22413416 0.19209087 0.16004762]</t>
         </is>
       </c>
       <c r="E838" t="inlineStr"/>
@@ -21502,11 +21502,11 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>[1.04487699 1.04487699 1.04487699 1.93976108 1.93976108 1.93976108
- 1.91097684 1.91097684 1.91097684 1.77889489 1.77889489 1.77889489
- 1.66139573 1.66139573 1.66139573 1.56625757 1.56625757 1.56625756
- 1.28357024 1.28357024 1.28357024 0.70920267 0.70920267 0.70920267
- 0.26772904 0.26772837 0.26772771 0.22413278 0.19209005 0.16004736]</t>
+          <t>[1.04490081 1.04490081 1.04490081 1.93949615 1.93949615 1.93949615
+ 1.90848082 1.90848082 1.90848082 1.77807492 1.77807492 1.77807492
+ 1.66165901 1.66165901 1.66165901 1.56836952 1.56836952 1.56836952
+ 1.28413844 1.28413844 1.28413844 0.70896533 0.70896533 0.70896533
+ 0.26771636 0.26771636 0.26771636 0.22413416 0.19209087 0.16004762]</t>
         </is>
       </c>
       <c r="E839" t="inlineStr"/>
@@ -21529,11 +21529,11 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[22.70864    22.70864    22.70864    41.66801039 41.6680104  41.6680104
- 41.06521026 41.06521026 41.06521026 38.29315101 38.29315101 38.29315102
- 35.81887182 35.81887182 35.81887181 33.80975869 33.80975868 33.80975868
- 27.80987722 27.80987721 27.8098772  15.4804038  15.4804038  15.48040381
-  5.87723392  5.8771902   5.87714649  4.2865692   2.69760779  1.55965343]</t>
+          <t>[22.70915074 22.70915074 22.70915074 41.66246433 41.66246433 41.66246433
+ 41.01291651 41.01291651 41.01291651 38.27591127 38.27591127 38.27591127
+ 35.82442471 35.82442471 35.82442471 33.85441411 33.85441411 33.85441411
+ 27.82198203 27.82198203 27.82198203 15.47527056 15.47527056 15.47527056
+  5.87697124  5.87697124  5.87697124  4.28665295  2.69764529  1.55966281]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -21556,11 +21556,11 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[22.70864    22.70864    22.70864    41.66801039 41.6680104  41.6680104
- 41.06521026 41.06521026 41.06521026 38.29315101 38.29315101 38.29315102
- 35.81887182 35.81887182 35.81887181 33.80975869 33.80975868 33.80975868
- 27.80987722 27.80987721 27.8098772  15.4804038  15.4804038  15.48040381
-  5.87723392  5.8771902   5.87714649  4.2865692   2.69760779  1.55965343]</t>
+          <t>[22.70915074 22.70915074 22.70915074 41.66246433 41.66246433 41.66246433
+ 41.01291651 41.01291651 41.01291651 38.27591127 38.27591127 38.27591127
+ 35.82442471 35.82442471 35.82442471 33.85441411 33.85441411 33.85441411
+ 27.82198203 27.82198203 27.82198203 15.47527056 15.47527056 15.47527056
+  5.87697124  5.87697124  5.87697124  4.28665295  2.69764529  1.55966281]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -21583,11 +21583,11 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[45.41728    45.41728    45.41727999 83.33602078 83.33602079 83.3360208
- 82.13042053 82.13042052 82.13042052 76.58630203 76.58630203 76.58630203
- 71.63774363 71.63774363 71.63774363 67.61951737 67.61951737 67.61951736
- 55.61975444 55.61975442 55.6197544  30.96080759 30.9608076  30.96080762
- 11.75446783 11.75438041 11.75429299  8.5731384   5.39521558  3.11930686]</t>
+          <t>[45.41830148 45.41830148 45.41830148 83.32492866 83.32492866 83.32492866
+ 82.02583302 82.02583302 82.02583302 76.55182254 76.55182254 76.55182254
+ 71.64884942 71.64884942 71.64884942 67.70882823 67.70882823 67.70882823
+ 55.64396406 55.64396406 55.64396406 30.95054111 30.95054111 30.95054111
+ 11.75394248 11.75394248 11.75394248  8.57330591  5.39529059  3.11932561]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -21610,36 +21610,36 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>[[-3.37077842e+07]
- [-3.23028552e+07]
- [-3.05847171e+07]
- [-3.00463377e+07]
- [-2.95069886e+07]
- [-2.89656885e+07]
- [-2.84278371e+07]
- [-2.78859876e+07]
- [-2.73390474e+07]
- [-2.62833381e+07]
- [-2.51919995e+07]
- [-2.40523830e+07]
- [-2.31220841e+07]
- [-2.23761924e+07]
- [-2.16299747e+07]
- [-2.12779788e+07]
- [-2.09259322e+07]
- [-2.05738398e+07]
- [-1.75791385e+07]
- [-1.55642579e+07]
- [-1.35479836e+07]
- [-1.19444195e+07]
- [-1.03394165e+07]
- [-8.73299036e+06]
- [-8.35939912e+06]
- [-7.98528947e+06]
- [-7.61082611e+06]
- [-7.31556871e+06]
- [-7.06125495e+06]
- [ 1.03318598e-08]]</t>
+          <t>[[-3.37076957e+07]
+ [-3.23027346e+07]
+ [-3.05845644e+07]
+ [-3.00462440e+07]
+ [-2.95069539e+07]
+ [-2.89657127e+07]
+ [-2.84284167e+07]
+ [-2.78871226e+07]
+ [-2.73407379e+07]
+ [-2.62853937e+07]
+ [-2.51944204e+07]
+ [-2.40551691e+07]
+ [-2.31247528e+07]
+ [-2.23787437e+07]
+ [-2.16324088e+07]
+ [-2.12799420e+07]
+ [-2.09274246e+07]
+ [-2.05748614e+07]
+ [-1.75792759e+07]
+ [-1.55635112e+07]
+ [-1.35463527e+07]
+ [-1.19433175e+07]
+ [-1.03388434e+07]
+ [-8.73294620e+06]
+ [-8.35937195e+06]
+ [-7.98527837e+06]
+ [-7.61083015e+06]
+ [-7.31557090e+06]
+ [-7.06125600e+06]
+ [ 1.70257408e-09]]</t>
         </is>
       </c>
       <c r="E843" t="inlineStr"/>
@@ -21662,36 +21662,36 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[[-3.02268382e+06]
- [-1.01551598e+07]
- [-1.31822289e+07]
- [ 2.93801511e+06]
- [ 2.93804208e+06]
- [ 2.93806952e+06]
- [ 2.93809331e+06]
- [ 2.93812223e+06]
- [ 2.93815212e+06]
- [ 2.93863746e+06]
- [ 2.93877534e+06]
- [ 2.93893081e+06]
- [ 2.93887771e+06]
- [ 2.93866160e+06]
- [ 2.93873428e+06]
- [ 2.93822034e+06]
- [ 2.93823782e+06]
- [ 2.93825508e+06]
- [ 2.94126906e+06]
- [ 2.94201923e+06]
- [ 2.94269847e+06]
- [ 2.94252639e+06]
- [ 2.94354588e+06]
- [ 2.94435142e+06]
+          <t>[[-3.02275199e+06]
+ [-1.01552433e+07]
+ [-1.31821669e+07]
+ [ 2.93801508e+06]
+ [ 2.93804205e+06]
+ [ 2.93806948e+06]
+ [ 2.93809295e+06]
+ [ 2.93812188e+06]
+ [ 2.93815178e+06]
+ [ 2.93863737e+06]
+ [ 2.93877527e+06]
+ [ 2.93893077e+06]
+ [ 2.93887817e+06]
+ [ 2.93866197e+06]
+ [ 2.93873466e+06]
+ [ 2.93822111e+06]
+ [ 2.93823858e+06]
+ [ 2.93825584e+06]
+ [ 2.94127062e+06]
+ [ 2.94202078e+06]
+ [ 2.94270002e+06]
+ [ 2.94252440e+06]
+ [ 2.94354390e+06]
+ [ 2.94434944e+06]
  [ 2.93944881e+06]
  [ 2.93961897e+06]
- [ 2.93974072e+06]
- [ 2.93937959e+06]
- [ 2.93918153e+06]
- [ 1.20402970e+03]]</t>
+ [ 2.93974073e+06]
+ [ 2.93937967e+06]
+ [ 2.93918160e+06]
+ [ 1.20408104e+03]]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -21714,36 +21714,36 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[[-1.35654545e+04]
- [-4.58911417e+04]
- [-6.12048025e+04]
- [ 8.73950310e+03]
- [ 8.73962484e+03]
- [ 8.73974904e+03]
- [ 8.73985732e+03]
- [ 8.73998897e+03]
- [ 8.74012542e+03]
- [ 8.74230503e+03]
- [ 8.74293906e+03]
- [ 8.74365694e+03]
- [ 8.74343504e+03]
- [ 8.74247256e+03]
- [ 8.74282039e+03]
- [ 8.74048219e+03]
- [ 8.74056700e+03]
- [ 8.74065114e+03]
- [ 8.75464538e+03]
- [ 8.75846000e+03]
- [ 8.76206545e+03]
- [ 8.76193121e+03]
- [ 8.76818069e+03]
- [ 8.77378652e+03]
- [ 8.74797379e+03]
- [ 8.74965581e+03]
- [ 8.75118930e+03]
- [ 8.74967932e+03]
- [ 8.74949130e+03]
- [ 1.00569473e+01]]</t>
+          <t>[[-1.35657632e+04]
+ [-4.58915315e+04]
+ [-6.12045492e+04]
+ [ 8.73950295e+03]
+ [ 8.73962469e+03]
+ [ 8.73974889e+03]
+ [ 8.73985569e+03]
+ [ 8.73998737e+03]
+ [ 8.74012386e+03]
+ [ 8.74230466e+03]
+ [ 8.74293878e+03]
+ [ 8.74365679e+03]
+ [ 8.74343712e+03]
+ [ 8.74247428e+03]
+ [ 8.74282211e+03]
+ [ 8.74048568e+03]
+ [ 8.74057049e+03]
+ [ 8.74065463e+03]
+ [ 8.75465242e+03]
+ [ 8.75846704e+03]
+ [ 8.76207250e+03]
+ [ 8.76192122e+03]
+ [ 8.76817072e+03]
+ [ 8.77377657e+03]
+ [ 8.74797399e+03]
+ [ 8.74965603e+03]
+ [ 8.75118954e+03]
+ [ 8.74968000e+03]
+ [ 8.74949186e+03]
+ [ 1.00573777e+01]]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -21766,36 +21766,36 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>[[-1.14379800e+05]
- [-7.60412481e+05]
- [-1.86487002e+06]
- [-2.21569396e+06]
- [-2.20085870e+06]
- [-2.18600668e+06]
- [-2.17113864e+06]
- [-2.15625538e+06]
- [-2.14135786e+06]
- [-2.11151354e+06]
- [-2.08161626e+06]
- [-2.05167488e+06]
- [-2.02169589e+06]
- [-1.99167731e+06]
- [-1.96161839e+06]
- [-1.94657900e+06]
- [-1.93153042e+06]
- [-1.91647326e+06]
- [-1.81127345e+06]
- [-1.70568036e+06]
- [-1.59991504e+06]
- [-1.44828763e+06]
- [-1.29590427e+06]
- [-1.14332568e+06]
- [-1.05177126e+06]
- [-9.59676505e+05]
- [-8.67164408e+05]
- [-7.80465509e+05]
- [-6.93236947e+05]
- [-2.18343624e-04]]</t>
+          <t>[[-1.14383155e+05]
+ [-7.60423013e+05]
+ [-1.86487581e+06]
+ [-2.21569451e+06]
+ [-2.20085926e+06]
+ [-2.18600723e+06]
+ [-2.17113916e+06]
+ [-2.15625584e+06]
+ [-2.14135825e+06]
+ [-2.11151369e+06]
+ [-2.08161614e+06]
+ [-2.05167444e+06]
+ [-2.02169511e+06]
+ [-1.99167622e+06]
+ [-1.96161699e+06]
+ [-1.94657747e+06]
+ [-1.93152879e+06]
+ [-1.91647157e+06]
+ [-1.81127161e+06]
+ [-1.70567887e+06]
+ [-1.59991436e+06]
+ [-1.44828835e+06]
+ [-1.29590570e+06]
+ [-1.14332716e+06]
+ [-1.05177245e+06]
+ [-9.59677398e+05]
+ [-8.67164982e+05]
+ [-7.80465788e+05]
+ [-6.93236955e+05]
+ [-2.18353183e-04]]</t>
         </is>
       </c>
       <c r="E846" t="inlineStr"/>
@@ -21818,36 +21818,36 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>[[ 2.58318530e+07]
- [ 1.70631894e+08]
- [ 4.13814890e+08]
- [ 4.90759360e+08]
- [ 4.85802084e+08]
- [ 4.80841127e+08]
- [ 4.75876666e+08]
- [ 4.70908898e+08]
- [ 4.65938051e+08]
- [ 4.55985679e+08]
- [ 4.46022072e+08]
- [ 4.36049272e+08]
- [ 4.26068771e+08]
- [ 4.16080260e+08]
- [ 4.06083641e+08]
- [ 4.01083440e+08]
- [ 3.96081442e+08]
- [ 3.91077789e+08]
- [ 3.56158481e+08]
- [ 3.21169110e+08]
- [ 2.86158552e+08]
- [ 2.36072341e+08]
- [ 1.85893898e+08]
- [ 1.35738095e+08]
- [ 1.05686670e+08]
- [ 7.55960645e+07]
- [ 4.54925070e+07]
- [ 1.74010967e+07]
- [-1.06758298e+07]
- [ 2.61400856e-02]]</t>
+          <t>[[ 2.58326088e+07]
+ [ 1.70634233e+08]
+ [ 4.13816099e+08]
+ [ 4.90759386e+08]
+ [ 4.85802111e+08]
+ [ 4.80841153e+08]
+ [ 4.75876687e+08]
+ [ 4.70908905e+08]
+ [ 4.65938039e+08]
+ [ 4.55985617e+08]
+ [ 4.46021949e+08]
+ [ 4.36049079e+08]
+ [ 4.26068505e+08]
+ [ 4.16079925e+08]
+ [ 4.06083240e+08]
+ [ 4.01083010e+08]
+ [ 3.96080990e+08]
+ [ 3.91077323e+08]
+ [ 3.56157975e+08]
+ [ 3.21168666e+08]
+ [ 2.86158264e+08]
+ [ 2.36072326e+08]
+ [ 1.85894030e+08]
+ [ 1.35738262e+08]
+ [ 1.05686805e+08]
+ [ 7.55961660e+07]
+ [ 4.54925726e+07]
+ [ 1.74011291e+07]
+ [-1.06758290e+07]
+ [ 2.61415057e-02]]</t>
         </is>
       </c>
       <c r="E847" t="inlineStr"/>
@@ -21870,35 +21870,35 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>[[ 884712.66233968]
- [1998730.00147391]
- [3630801.21009635]
- [6203330.94444827]
- [6203318.56463018]
- [6203306.16256427]
- [6203303.69888284]
- [6203291.14594146]
- [6203278.49973769]
- [6203312.88275056]
- [6203286.42283173]
- [6203259.07015282]
- [6203272.95199999]
- [6203247.99395062]
- [6203227.98332171]
- [6203243.06589865]
- [6203233.05139084]
- [6203223.03547439]
- [6203307.41280481]
- [6203237.5394494 ]
- [6203167.639487  ]
- [6203477.17099271]
- [6203376.61858743]
- [6203275.97921391]
- [6204076.78772059]
- [6204014.7880757 ]
- [6203952.70325262]
- [6204136.20510639]
- [6204319.77050902]
+          <t>[[ 884722.48172393]
+ [1998747.00968068]
+ [3630818.12304746]
+ [6203331.03481993]
+ [6203318.65467501]
+ [6203306.25227929]
+ [6203304.57759368]
+ [6203292.02129171]
+ [6203279.37160592]
+ [6203313.23804496]
+ [6203286.77513194]
+ [6203259.41904878]
+ [6203272.923187  ]
+ [6203247.96592979]
+ [6203227.95531209]
+ [6203242.3079473 ]
+ [6203232.29349742]
+ [6203222.27764085]
+ [6203307.14674137]
+ [6203237.27354898]
+ [6203167.37376201]
+ [6203477.35095222]
+ [6203376.79810906]
+ [6203276.15826751]
+ [6204076.84733661]
+ [6204014.84408298]
+ [6203952.75587542]
+ [6204136.1948883 ]
+ [6204319.76204182]
  [      0.        ]]</t>
         </is>
       </c>
@@ -26239,7 +26239,7 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>[40686.9262576]</t>
+          <t>[40686.9385631]</t>
         </is>
       </c>
       <c r="E961" t="inlineStr"/>
@@ -26791,7 +26791,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>[117992.08614705]</t>
+          <t>[117992.12183299]</t>
         </is>
       </c>
       <c r="E985" t="inlineStr"/>
@@ -26814,7 +26814,7 @@
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t>[209453.42423206]</t>
+          <t>[209453.57906087]</t>
         </is>
       </c>
       <c r="E986" t="inlineStr"/>
@@ -26837,7 +26837,7 @@
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t>[25235.35231712]</t>
+          <t>[25235.37097119]</t>
         </is>
       </c>
       <c r="E987" t="inlineStr"/>
@@ -26975,7 +26975,7 @@
       </c>
       <c r="D993" t="inlineStr">
         <is>
-          <t>[41472.00041014]</t>
+          <t>[41472.03526527]</t>
         </is>
       </c>
       <c r="E993" t="inlineStr"/>
@@ -26998,7 +26998,7 @@
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>[709171.20701343]</t>
+          <t>[709171.80303605]</t>
         </is>
       </c>
       <c r="E994" t="inlineStr"/>
@@ -27136,7 +27136,7 @@
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>[9681605.40973547]</t>
+          <t>[9681606.19627285]</t>
         </is>
       </c>
       <c r="E1000" t="inlineStr"/>
@@ -27159,7 +27159,7 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>[654772.99959578]</t>
+          <t>[654773.06541047]</t>
         </is>
       </c>
       <c r="E1001" t="inlineStr"/>
@@ -27182,7 +27182,7 @@
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>[3418305.91604409]</t>
+          <t>[3418534.52261206]</t>
         </is>
       </c>
       <c r="E1002" t="inlineStr"/>
@@ -27205,7 +27205,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>[1280553.97458103]</t>
+          <t>[1280657.95702876]</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr"/>
@@ -27228,7 +27228,7 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>[16699652.34088727]</t>
+          <t>[16699881.73399261]</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr"/>
@@ -27251,7 +27251,7 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>[1113.31015606]</t>
+          <t>[1113.32544893]</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr"/>
@@ -27274,7 +27274,7 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>[2228975.27878078]</t>
+          <t>[2229079.32704321]</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr"/>
@@ -27343,7 +27343,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>[3418305.91604409]</t>
+          <t>[3418534.52261206]</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr"/>
@@ -27366,7 +27366,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[3418305.91604409]</t>
+          <t>[3418534.52261206]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27416,7 +27416,7 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>[0.2832068]</t>
+          <t>[0.28320957]</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr"/>
@@ -27564,9 +27564,9 @@
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>[ 950.04387671 1091.35415377 1192.48656142 1273.22823698 1367.71014579
- 1446.51097802 1514.7639639  1551.90527311 1586.7282947  1619.55783383
- 1409.12044769 1207.07323401 1007.55623723]</t>
+          <t>[ 950.04387675 1091.35415395 1192.48656177 1273.22823752 1367.71014618
+ 1446.51097822 1514.7639639  1551.909589   1586.73717482 1619.57150793
+ 1409.12909086 1207.07754767 1007.55664453]</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
@@ -27805,8 +27805,8 @@
       <c r="D1027" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.          9.99997524  9.99995049  9.99992573  8.66661716  7.3333086
-  6.00000003]</t>
+ 10.         10.         10.         10.          8.66666752  7.33333503
+  6.00000255]</t>
         </is>
       </c>
       <c r="E1027" t="inlineStr"/>
@@ -27900,9 +27900,9 @@
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>[ 950.04387671 1091.35415377 1192.48656142 1273.22823698 1367.71014579
- 1446.51097802 1514.7639639  1551.90527311 1586.7282947  1619.55783383
- 1409.12044769 1207.07323401 1007.55623723]</t>
+          <t>[ 950.04387675 1091.35415395 1192.48656177 1273.22823752 1367.71014618
+ 1446.51097822 1514.7639639  1551.909589   1586.73717482 1619.57150793
+ 1409.12909086 1207.07754767 1007.55664453]</t>
         </is>
       </c>
       <c r="E1031" t="inlineStr"/>
@@ -28042,10 +28042,10 @@
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>[ -950.04387671 -1091.35415377 -1192.48656142 -1273.22823698
- -1367.71014579 -1446.51097802 -1514.7639639  -1551.90527311
- -1586.7282947  -1619.55783383 -1409.12044769 -1207.07323401
- -1007.55623723]</t>
+          <t>[ -950.04387675 -1091.35415395 -1192.48656177 -1273.22823752
+ -1367.71014618 -1446.51097822 -1514.7639639  -1551.909589
+ -1586.73717482 -1619.57150793 -1409.12909086 -1207.07754767
+ -1007.55664453]</t>
         </is>
       </c>
       <c r="E1037" t="inlineStr"/>
@@ -28093,7 +28093,7 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.99992573  6.00000003]</t>
+          <t>[10.         10.         10.         10.          6.00000255]</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr"/>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>[0.0675406  0.03725595 0.01404628 0.01259864]</t>
+          <t>[0.06757061 0.03724346 0.0140456  0.01259863]</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr"/>
@@ -28181,7 +28181,7 @@
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.99992573  6.00000003]</t>
+          <t>[10.         10.         10.         10.          6.00000255]</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>[0.0675406  0.03725595 0.01404628 0.01259864]</t>
+          <t>[0.06757061 0.03724346 0.0140456  0.01259863]</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr"/>
@@ -28440,8 +28440,8 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[0.0675406  0.0675406  0.0675406  0.03725595 0.03725595 0.03725595
- 0.01404628 0.01404628 0.01404628 0.01259864 0.01259864 0.01259864]</t>
+          <t>[0.06757061 0.06757061 0.06757061 0.03724346 0.03724346 0.03724346
+ 0.0140456  0.0140456  0.0140456  0.01259863 0.01259863 0.01259863]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28624,8 +28624,8 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>[2.25504587 2.25504587 2.25504587 1.24769448 1.24769448 1.24769448
- 0.47150259 0.47150142 0.47150025 0.39473397 0.33826786 0.28180174]</t>
+          <t>[2.25604096 2.25604096 2.25604096 1.24727763 1.24727763 1.24727763
+ 0.47148028 0.47148028 0.47148028 0.39473641 0.33826931 0.28180221]</t>
         </is>
       </c>
       <c r="E1062" t="inlineStr"/>
@@ -28648,8 +28648,8 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>[1.28357024 1.28357024 1.28357024 0.70920267 0.70920267 0.70920267
- 0.26772904 0.26772837 0.26772771 0.22413278 0.19209005 0.16004736]</t>
+          <t>[1.28413844 1.28413844 1.28413844 0.70896533 0.70896533 0.70896533
+ 0.26771636 0.26771636 0.26771636 0.22413416 0.19209087 0.16004762]</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr"/>
@@ -28672,8 +28672,8 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>[1.28357024 1.28357024 1.28357024 0.70920267 0.70920267 0.70920267
- 0.26772904 0.26772837 0.26772771 0.22413278 0.19209005 0.16004736]</t>
+          <t>[1.28413844 1.28413844 1.28413844 0.70896533 0.70896533 0.70896533
+ 0.26771636 0.26771636 0.26771636 0.22413416 0.19209087 0.16004762]</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr"/>
@@ -28696,8 +28696,8 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>[27.80987722 27.80987721 27.8098772  15.4804038  15.4804038  15.48040381
-  5.87723392  5.8771902   5.87714649  4.2865692   2.69760779  1.55965343]</t>
+          <t>[27.82198203 27.82198203 27.82198203 15.47527056 15.47527056 15.47527056
+  5.87697124  5.87697124  5.87697124  4.28665295  2.69764529  1.55966281]</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr"/>
@@ -28720,8 +28720,8 @@
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>[27.80987722 27.80987721 27.8098772  15.4804038  15.4804038  15.48040381
-  5.87723392  5.8771902   5.87714649  4.2865692   2.69760779  1.55965343]</t>
+          <t>[27.82198203 27.82198203 27.82198203 15.47527056 15.47527056 15.47527056
+  5.87697124  5.87697124  5.87697124  4.28665295  2.69764529  1.55966281]</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr"/>
@@ -28744,8 +28744,8 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>[55.61975444 55.61975442 55.6197544  30.96080759 30.9608076  30.96080762
- 11.75446783 11.75438041 11.75429299  8.5731384   5.39521558  3.11930686]</t>
+          <t>[55.64396406 55.64396406 55.64396406 30.95054111 30.95054111 30.95054111
+ 11.75394248 11.75394248 11.75394248  8.57330591  5.39529059  3.11932561]</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr"/>
@@ -28839,18 +28839,18 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>[[-17582294.14733629]
- [-15566019.83222635]
- [-13548699.99818555]
- [-11943696.95017379]
- [-10337270.85792425]
- [ -8729637.12106814]
- [ -8355526.56611178]
- [ -7981062.3223679 ]
- [ -7606265.6116423 ]
- [ -7311825.00150832]
- [ -7059408.20683794]
- [ -6848965.00832183]]</t>
+          <t>[[-17582431.61079418]
+ [-15565273.13808548]
+ [-13547069.14644591]
+ [-11942595.00421067]
+ [-10336697.81773765]
+ [ -8729592.98665805]
+ [ -8355499.40328269]
+ [ -7981051.18100381]
+ [ -7606269.56425592]
+ [ -7311827.11587623]
+ [ -7059409.21740272]
+ [ -6848965.66278679]]</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr"/>
@@ -28873,18 +28873,18 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>[[2938166.2404156 ]
- [2938967.7666175 ]
- [2939697.65734109]
- [2940217.59055548]
- [2941348.98811392]
- [2942267.92974575]
- [2939000.42985485]
- [2939212.84191466]
- [2939378.06229214]
- [2939129.81486916]
- [2939007.92996238]
- [2938833.81991283]]</t>
+          <t>[[2938166.24120986]
+ [2938967.76872938]
+ [2939697.66044292]
+ [2940216.19293037]
+ [2941347.59267634]
+ [2942266.53715669]
+ [2939000.42944887]
+ [2939212.84466304]
+ [2939378.06787257]
+ [2939129.88052706]
+ [2939007.98316991]
+ [2938833.86116442]]</t>
         </is>
       </c>
       <c r="E1072" t="inlineStr"/>
@@ -28907,18 +28907,18 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>[[8740.29726187]
- [8744.2592017 ]
- [8748.00857071]
- [8750.98398618]
- [8757.5677563 ]
- [8763.51459614]
- [8745.69872431]
- [8747.50835924]
- [8749.17606213]
- [8748.19122657]
- [8748.29900755]
- [8748.54428052]]</t>
+          <t>[[8740.29726686]
+ [8744.25921525]
+ [8748.00859158]
+ [8750.97695565]
+ [8757.5607431 ]
+ [8763.5076049 ]
+ [8745.69894692]
+ [8747.50860032]
+ [8749.17631737]
+ [8748.19184101]
+ [8748.2995012 ]
+ [8748.54465629]]</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr"/>
@@ -28941,18 +28941,18 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>[[-1881240.78933119]
- [-1778526.32346697]
- [-1675282.14003746]
- [-1526726.92078716]
- [-1376969.00866229]
- [-1226589.41883824]
- [-1136100.01000572]
- [-1044966.26309677]
- [ -953315.35645491]
- [ -867324.42047796]
- [ -780693.55788121]
- [ -693050.98848595]]</t>
+          <t>[[-1881239.11953007]
+ [-1778525.18274311]
+ [-1675281.85345012]
+ [-1526727.85245867]
+ [-1376970.53606477]
+ [-1226590.95817441]
+ [-1136101.30475747]
+ [-1044967.28660644]
+ [ -953316.09022877]
+ [ -867324.88739678]
+ [ -780693.78188688]
+ [ -693050.98892473]]</t>
         </is>
       </c>
       <c r="E1074" t="inlineStr"/>
@@ -28975,18 +28975,18 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>[[ 3.80579956e+08]
- [ 3.46209135e+08]
- [ 3.11736772e+08]
- [ 2.62298485e+08]
- [ 2.12663421e+08]
- [ 1.62953524e+08]
- [ 1.33111772e+08]
- [ 1.03202745e+08]
- [ 7.32541264e+07]
- [ 4.52816665e+07]
- [ 1.72924605e+07]
- [-1.06981558e+07]]</t>
+          <t>[[ 3.80579426e+08]
+ [ 3.46208714e+08]
+ [ 3.11736524e+08]
+ [ 2.62298481e+08]
+ [ 2.12663548e+08]
+ [ 1.62953683e+08]
+ [ 1.33111907e+08]
+ [ 1.03202853e+08]
+ [ 7.32542042e+07]
+ [ 4.52817167e+07]
+ [ 1.72924850e+07]
+ [-1.06981559e+07]]</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr"/>
@@ -29009,18 +29009,18 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>[[6203307.55046635]
- [6203237.64892613]
- [6203167.70061161]
- [6203477.2159176 ]
- [6203376.57328004]
- [6203275.84467953]
- [6204076.23119362]
- [6204014.14537079]
- [6203952.00171016]
- [6204135.30099543]
- [6204318.90438459]
- [6204587.77699562]]</t>
+          <t>[[6203307.28434319]
+ [6203237.38297843]
+ [6203167.43486067]
+ [6203477.39589399]
+ [6203376.75278836]
+ [6203276.02369   ]
+ [6204076.29078821]
+ [6204014.20135077]
+ [6203952.05429737]
+ [6204135.29076689]
+ [6204318.89590241]
+ [6204587.77215899]]</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr"/>
@@ -29124,7 +29124,7 @@
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>[948421.30419975]</t>
+          <t>[948421.37001445]</t>
         </is>
       </c>
       <c r="E1080" t="inlineStr"/>
@@ -29147,8 +29147,8 @@
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>[4.16138016e+08 2.85204923e+08 2.66307067e+08 5.41567879e+02
- 1.42357739e+07 1.69909286e+05]</t>
+          <t>[4.16138018e+08 2.85204924e+08 2.66307069e+08 5.41568672e+02
+ 1.42357739e+07 1.69909329e+05]</t>
         </is>
       </c>
       <c r="E1081" t="inlineStr"/>
@@ -29171,7 +29171,7 @@
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>[-6.75812852 -0.09586916  4.59772555]</t>
+          <t>[-6.75812805 -0.09586918  4.59772526]</t>
         </is>
       </c>
       <c r="E1082" t="inlineStr"/>
@@ -29194,9 +29194,9 @@
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t>[[ 2937712.6186812 ]
+          <t>[[ 2937712.61868122]
  [    8738.15973295]
- [-6848965.00832182]]</t>
+ [-6848965.66278679]]</t>
         </is>
       </c>
       <c r="E1083" t="inlineStr"/>
@@ -29219,9 +29219,9 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>[[  -693049.20165717]
- [-10698162.27782797]
- [  6202627.73946186]]</t>
+          <t>[[  -693049.2021034 ]
+ [-10698162.39012366]
+ [  6202627.73777136]]</t>
         </is>
       </c>
       <c r="E1084" t="inlineStr"/>
@@ -29314,19 +29314,19 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>[[ -950.04387671]
- [-1091.35415377]
- [-1192.48656142]
- [-1273.22823698]
- [-1367.71014579]
- [-1446.51097802]
+          <t>[[ -950.04387675]
+ [-1091.35415395]
+ [-1192.48656177]
+ [-1273.22823752]
+ [-1367.71014618]
+ [-1446.51097822]
  [-1514.7639639 ]
- [-1551.90527311]
- [-1586.7282947 ]
- [-1619.55783383]
- [-1409.12044769]
- [-1207.07323401]
- [-1007.55623723]]</t>
+ [-1551.909589  ]
+ [-1586.73717482]
+ [-1619.57150793]
+ [-1409.12909086]
+ [-1207.07754767]
+ [-1007.55664453]]</t>
         </is>
       </c>
       <c r="E1087" t="inlineStr"/>
@@ -29349,7 +29349,7 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>[1280553.97458103]</t>
+          <t>[1280657.95702876]</t>
         </is>
       </c>
       <c r="E1088" t="inlineStr"/>
@@ -29372,7 +29372,7 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>[46.77267123]</t>
+          <t>[46.76465413]</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr"/>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>[4.38314452e+09 4.38314452e+09 3.11186502e+07 0.00000000e+00
+          <t>[4.38260061e+09 4.38260061e+09 3.11211609e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -30530,7 +30530,7 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>[0.08543876]</t>
+          <t>[0.08543875]</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
@@ -30607,7 +30607,7 @@
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>[-202.2890784]</t>
+          <t>[-202.28903229]</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
@@ -30634,7 +30634,7 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>[-0.04543876]</t>
+          <t>[-0.04543875]</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>[0.11643876]</t>
+          <t>[0.11643875]</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
@@ -30684,7 +30684,7 @@
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>[0.46817159]</t>
+          <t>[0.46817165]</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
@@ -30707,7 +30707,7 @@
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>[2.135969]</t>
+          <t>[2.13596874]</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
@@ -30730,7 +30730,7 @@
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[-0.53182841]</t>
+          <t>[-0.53182835]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30753,7 +30753,7 @@
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>[-1.135969]</t>
+          <t>[-1.13596874]</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
@@ -30780,7 +30780,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>[0.1516538]</t>
+          <t>[0.15165378]</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[6.21249371e+08]</t>
+          <t>[6.21239701e+08]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30834,7 +30834,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[1.93949937e+09]</t>
+          <t>[1.9394897e+09]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30861,7 +30861,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[3232.49895104]</t>
+          <t>[3232.48283479]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -32734,7 +32734,7 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>[0.77676825]</t>
+          <t>[0.77676699]</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr"/>
@@ -33724,7 +33724,7 @@
       </c>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>[40686.9262576]</t>
+          <t>[40686.9385631]</t>
         </is>
       </c>
       <c r="E1263" t="inlineStr"/>
@@ -33747,7 +33747,7 @@
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>[629537.64727866]</t>
+          <t>[629537.69443928]</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
@@ -33770,7 +33770,7 @@
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>[-4.00991754 -0.14443037  4.24918641]</t>
+          <t>[-4.00991725 -0.1444304   4.24918613]</t>
         </is>
       </c>
       <c r="E1265" t="inlineStr"/>
@@ -33793,8 +33793,8 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>[9225580.39914081 8618497.7383741  8196888.30401907  351088.86436951
- 1743635.59665262 -201554.91358489]</t>
+          <t>[9225582.89220191 8618500.60863477 8196891.639658    351088.9216747
+ 1743636.49350718 -201554.93267315]</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr"/>
@@ -33817,8 +33817,8 @@
       </c>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>[8803899.14877582 7822207.3556038  7821305.93527631  364599.1718138
- 1346158.154901   -215871.37126807]</t>
+          <t>[8803901.40646471 7822209.78679351 7821309.06618937  364599.23992588
+ 1346158.83273985 -215871.40190236]</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
@@ -33841,8 +33841,8 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>[2.01837020e+07 2.93114899e+07 1.79570502e+07 2.32830644e-10
- 1.20727790e+07 1.70483168e+05]</t>
+          <t>[2.01837036e+07 2.93114910e+07 1.79570526e+07 2.32830644e-10
+ 1.20727791e+07 1.70483213e+05]</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -33888,7 +33888,7 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>[0.00137839]</t>
+          <t>[0.00137838]</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>[-1.47689788e-05]</t>
+          <t>[-1.47689172e-05]</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
@@ -33957,7 +33957,7 @@
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>[4.84359871e-06]</t>
+          <t>[4.84366027e-06]</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr"/>
@@ -33980,7 +33980,7 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>[7.71700592e-06]</t>
+          <t>[7.71694436e-06]</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
@@ -34003,9 +34003,9 @@
       </c>
       <c r="D1275" t="inlineStr">
         <is>
-          <t>[[ 2937712.6186812 ]
+          <t>[[ 2937712.61868122]
  [    8738.15973295]
- [-6848965.00832182]]</t>
+ [-6848965.66278679]]</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
@@ -34028,9 +34028,9 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>[[  -693049.20165717]
- [-10698162.27782797]
- [  6202627.73946186]]</t>
+          <t>[[  -693049.2021034 ]
+ [-10698162.39012366]
+ [  6202627.73777136]]</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
@@ -34053,21 +34053,21 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>[[15129082.91113064]
- [16439392.66455747]
- [17919949.20829881]
- [19666216.75261727]
- [21786347.91275144]
- [24407155.8502209 ]
- [27665774.50975462]
- [31646588.02272648]
- [36147298.62391441]
- [40138297.03530446]
- [41683847.345837  ]
- [22562407.60628429]
- [22934262.56907469]
- [ 8414810.88873864]
- [ 4014557.03078889]]</t>
+          <t>[[15129072.9270532 ]
+ [16439381.71301106]
+ [17919937.25634098]
+ [19666203.74313869]
+ [21786333.80378319]
+ [24407140.67180357]
+ [27665758.5478765 ]
+ [31646572.16272059]
+ [36147284.94771993]
+ [40138288.74336223]
+ [41683845.10360856]
+ [22562407.60476828]
+ [22934262.56787685]
+ [ 8414810.887915  ]
+ [ 4014557.03078893]]</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
@@ -34090,21 +34090,21 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>[[ 9409281.59334286]
- [ 7185408.20813308]
- [ 4890270.38693874]
- [ 2867606.19980459]
- [ 6302192.28408016]
- [10594789.06823767]
- [16113710.65147842]
- [23280195.6123838 ]
- [32319786.42248055]
- [42380126.61726476]
- [50054980.24329887]
- [26439553.38095998]
- [15050532.29401108]
- [14286544.01476718]
- [14163428.49875392]]</t>
+          <t>[[ 9409276.58862533]
+ [ 7185404.11491681]
+ [ 4890267.23370056]
+ [ 2867604.05228359]
+ [ 6302188.76564794]
+ [10594784.00048263]
+ [16113703.99504146]
+ [23280187.70297102]
+ [32319778.5530841 ]
+ [42380121.31578009]
+ [50054978.73753657]
+ [26439553.38096051]
+ [15050532.29401173]
+ [14286544.01476855]
+ [14163428.49875534]]</t>
         </is>
       </c>
       <c r="E1278" t="inlineStr"/>
@@ -34127,17 +34127,17 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>[[ 5918628.3674181 ]
- [ 6698524.42580172]
- [ 7647262.89510867]
- [ 8812677.61668425]
- [10256287.60578393]
- [12079013.79600314]
- [14450394.25625774]
- [17620494.6065358 ]
- [21774326.31227804]
- [26358542.322845  ]
- [29564579.11323377]
+          <t>[[ 5918622.08506674]
+ [ 6698517.45743614]
+ [ 7647255.22701476]
+ [ 8812669.19061778]
+ [10256278.33725961]
+ [12079003.60711626]
+ [14450383.1666866 ]
+ [17620483.02649534]
+ [21774315.75633045]
+ [26358535.72266874]
+ [29564577.16365247]
  [       0.        ]
  [       0.        ]
  [       0.        ]
@@ -34160,17 +34160,17 @@
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>[[0.07590173]
- [0.06864722]
- [0.06415272]
- [0.06430256]
- [0.07890961]
- [0.10129026]
- [0.13312073]
- [0.1765419 ]
- [0.2324728 ]
- [0.29477568]
- [0.34129235]
+          <t>[[0.07590169]
+ [0.06864718]
+ [0.06415268]
+ [0.06430252]
+ [0.07890957]
+ [0.1012902 ]
+ [0.13312066]
+ [0.17654183]
+ [0.23247274]
+ [0.29477564]
+ [0.34129234]
  [0.18473121]
  [0.12563929]
  [0.09457699]
@@ -34193,7 +34193,7 @@
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>[0.0016924]</t>
+          <t>[0.00169239]</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr"/>
@@ -34212,7 +34212,7 @@
       <c r="C1282" t="inlineStr"/>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>[6.20974194e-05]</t>
+          <t>[6.20982086e-05]</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr"/>
@@ -34231,7 +34231,7 @@
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>[23.08995099]</t>
+          <t>[23.08993708]</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr"/>
@@ -34250,7 +34250,7 @@
       <c r="C1284" t="inlineStr"/>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>[0.01354335]</t>
+          <t>[0.01354324]</t>
         </is>
       </c>
       <c r="E1284" t="inlineStr"/>
@@ -34296,7 +34296,7 @@
       </c>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>[948421.30419975]</t>
+          <t>[948421.37001445]</t>
         </is>
       </c>
       <c r="E1286" t="inlineStr"/>
@@ -34319,7 +34319,7 @@
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>[-6.75812852 -0.09586916  4.59772555]</t>
+          <t>[-6.75812805 -0.09586918  4.59772526]</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
@@ -34342,8 +34342,8 @@
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>[4.16138016e+08 2.85204923e+08 2.66307067e+08 5.41567879e+02
- 1.42357739e+07 1.69909286e+05]</t>
+          <t>[4.16138018e+08 2.85204924e+08 2.66307069e+08 5.41568672e+02
+ 1.42357739e+07 1.69909329e+05]</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr"/>
@@ -34418,11 +34418,11 @@
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          63274.56438251
-  63567.52329466  64449.93152488  65932.48512269  68033.35918549
-  70778.7656079   74203.80685615  83285.51715675  95797.25155505
- 112544.89762894    664.63608165    782.92813985    862.16990375
-    894.50127376    923.56241796    950.04387662]</t>
+          <t>[     0.              0.              0.          63274.56439359
+  63567.52330231  64449.93152909  65932.48512338  68033.35918758
+  70778.76561151  74203.80686143  83285.51716102  95797.25155807
+ 112544.89763027    664.63608167    782.92813988    862.16990379
+    894.50127382    923.56241806    950.04387675]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -34672,10 +34672,10 @@
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          63274.56438251
-  63567.52329466  64449.93152488  65932.48512269  68033.35918549
-  70778.7656079   74203.80685615  83285.51715675  95797.25155505
- 112544.89762894      0.              0.              0.
+          <t>[     0.              0.              0.          63274.56439359
+  63567.52330231  64449.93152909  65932.48512338  68033.35918758
+  70778.76561151  74203.80686143  83285.51716102  95797.25155807
+ 112544.89763027      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -34875,8 +34875,8 @@
         <is>
           <t>[  0.           0.           0.           0.           0.
    0.           0.           0.           0.           0.
-   0.           0.           0.         664.63608165 782.92813985
- 862.16990375 894.50127376 923.56241796 950.04387662]</t>
+   0.           0.           0.         664.63608167 782.92813988
+ 862.16990379 894.50127382 923.56241806 950.04387675]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
@@ -35066,11 +35066,11 @@
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -63274.56438251
-  -63567.52329466  -64449.93152488  -65932.48512269  -68033.35918549
-  -70778.7656079   -74203.80685615  -83285.51715675  -95797.25155505
- -112544.89762894    -664.63608165    -782.92813985    -862.16990375
-    -894.50127376    -923.56241796    -950.04387662]</t>
+          <t>[      0.               0.               0.          -63274.56439359
+  -63567.52330231  -64449.93152909  -65932.48512338  -68033.35918758
+  -70778.76561151  -74203.80686143  -83285.51716102  -95797.25155807
+ -112544.89763027    -664.63608167    -782.92813988    -862.16990379
+    -894.50127382    -923.56241806    -950.04387675]</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr"/>
@@ -35116,8 +35116,8 @@
       <c r="C1319" t="inlineStr"/>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[182.00680367  97.79021836  99.27126416 106.68197905 114.26497406
- 121.23851777]</t>
+          <t>[182.00264153  97.80364951  99.40179808 106.73142404 114.24678372
+ 121.07453023]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -35174,7 +35174,7 @@
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>[1.86119641 0.98508082 0.93053452 0.93363675 0.94248079]</t>
+          <t>[1.86089826 0.98392234 0.93132645 0.93421819 0.94360708]</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr"/>
@@ -35264,7 +35264,7 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[3926.99081665]</t>
+          <t>[3926.99081699]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -35287,7 +35287,7 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[39472102.05137084]</t>
+          <t>[39472102.05479642]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -35306,7 +35306,7 @@
       <c r="C1328" t="inlineStr"/>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>[3.]</t>
+          <t>[2.]</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr"/>
@@ -35352,7 +35352,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[490.87385211]</t>
+          <t>[490.87385212]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -35375,7 +35375,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[490.87385211]</t>
+          <t>[490.87385212]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -35726,8 +35726,8 @@
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>[14326.75739622 26538.04284428 26146.1465516  24347.09011645
- 22745.6122928  21448.1891284 ]</t>
+          <t>[14327.08321983 26534.43608568 26112.16050189 24335.91762866
+ 22749.20186459 21476.99737138]</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
@@ -35754,8 +35754,8 @@
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>[177127.39198322 325010.48108951 320308.64004723 298686.57791394
- 279387.20016329 263716.11773682]</t>
+          <t>[177131.37577974 324967.22178745 319900.74876046 298552.10790767
+ 279430.51272725 264064.43009258]</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
@@ -35782,8 +35782,8 @@
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>[177127.39198322 325010.48108951 320308.64004723 298686.57791394
- 279387.20016329 263716.11773682]</t>
+          <t>[177131.37577974 324967.22178745 319900.74876046 298552.10790767
+ 279430.51272725 264064.43009258]</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
@@ -35810,8 +35810,8 @@
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>[4.24460561e+12 7.78841316e+12 7.67574024e+12 7.15759832e+12
- 6.69511623e+12 6.31958106e+12]</t>
+          <t>[4.24470107e+12 7.78737651e+12 7.66596570e+12 7.15437594e+12
+ 6.69615415e+12 6.32792787e+12]</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
@@ -35838,8 +35838,8 @@
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>[4.24460561e+12 7.78841316e+12 7.67574024e+12 7.15759832e+12
- 6.69511623e+12 6.31958106e+12]</t>
+          <t>[4.24470107e+12 7.78737651e+12 7.66596570e+12 7.15437594e+12
+ 6.69615415e+12 6.32792787e+12]</t>
         </is>
       </c>
       <c r="E1350" t="inlineStr">
@@ -35866,8 +35866,8 @@
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>[3.36597225e+12 6.17621163e+12 6.08686201e+12 5.67597547e+12
- 5.30922717e+12 5.01142778e+12]</t>
+          <t>[3.36604795e+12 6.17538957e+12 6.07911080e+12 5.67342012e+12
+ 5.31005024e+12 5.01804680e+12]</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
@@ -35894,8 +35894,8 @@
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>[3.43320331e+11 6.35946390e+11 6.26555153e+11 5.83443329e+11
- 5.45066194e+11 5.13975297e+11]</t>
+          <t>[3.43328139e+11 6.35859959e+11 6.25740726e+11 5.83175596e+11
+ 5.45152213e+11 5.14665645e+11]</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
@@ -36003,12 +36003,12 @@
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.58254633 0.23559315 0.23559315 0.        ]
- [0.         0.         0.31449192 0.12839586 0.12839586 0.        ]
- [0.         0.         0.31920574 0.13028059 0.13028059 0.        ]
- [0.         0.         0.3427925  0.13971167 0.13971167 0.        ]
- [0.         0.         0.36692791 0.1493626  0.1493626  0.        ]
- [0.         0.         0.38912376 0.15823834 0.15823834 0.        ]]</t>
+          <t>[[0.         0.         0.58253309 0.23558785 0.23558785 0.        ]
+ [0.         0.         0.31453467 0.12841295 0.12841295 0.        ]
+ [0.         0.         0.3196212  0.13044671 0.13044671 0.        ]
+ [0.         0.         0.34294988 0.1397746  0.1397746  0.        ]
+ [0.         0.         0.36687001 0.14933945 0.14933945 0.        ]
+ [0.         0.         0.38860181 0.15802961 0.15802961 0.        ]]</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr"/>
@@ -36031,12 +36031,12 @@
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>[[0.95705046 0.95705046 0.         0.         0.         0.11779657]
- [0.51552741 0.51552741 0.         0.         0.         0.06419793]
- [0.52329258 0.52329258 0.         0.         0.         0.0651403 ]
- [0.56214676 0.56214676 0.         0.         0.         0.06985583]
- [0.60190356 0.60190356 0.         0.         0.         0.0746813 ]
- [0.63846459 0.63846459 0.         0.         0.         0.07911917]]</t>
+          <t>[[0.95702864 0.95702864 0.         0.         0.         0.11779393]
+ [0.51559783 0.51559783 0.         0.         0.         0.06420648]
+ [0.52397697 0.52397697 0.         0.         0.         0.06522335]
+ [0.562406   0.562406   0.         0.         0.         0.0698873 ]
+ [0.60180819 0.60180819 0.         0.         0.         0.07466973]
+ [0.63760484 0.63760484 0.         0.         0.         0.07901481]]</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr"/>
@@ -36059,7 +36059,7 @@
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>[1083.37709107]</t>
+          <t>[1083.34939261]</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr"/>
@@ -36082,7 +36082,7 @@
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>[3123382.66878689]</t>
+          <t>[3123140.92507672]</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr"/>
@@ -36105,7 +36105,7 @@
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>[1271391.6386005]</t>
+          <t>[1271281.66132225]</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr"/>
@@ -36128,7 +36128,7 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>[36.04767429]</t>
+          <t>[36.05011418]</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr"/>
@@ -36151,7 +36151,7 @@
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>[2.07326458e+09 2.07326458e+09 3.12794715e+07 0.00000000e+00
+          <t>[2.07345247e+09 2.07345247e+09 3.12768590e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36198,9 +36198,9 @@
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>[0.05878901 0.05878901 0.05878901 0.1094179  0.1094179  0.1094179
- 0.10778547 0.10778547 0.10778547 0.1002981  0.1002981  0.1002981
- 0.09364199 0.09364199 0.09364199 0.08825578 0.08825578 0.08825578]</t>
+          <t>[0.05879036 0.05879036 0.05879036 0.10940287 0.10940287 0.10940287
+ 0.10764393 0.10764393 0.10764393 0.10025164 0.10025164 0.10025164
+ 0.0936569  0.0936569  0.0936569  0.08837532 0.08837532 0.08837532]</t>
         </is>
       </c>
       <c r="E1364" t="inlineStr"/>
@@ -36248,7 +36248,7 @@
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>[1371391.6386005]</t>
+          <t>[1371281.66132225]</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr"/>
@@ -36271,7 +36271,7 @@
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>[3623382.66878689]</t>
+          <t>[3623140.92507672]</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr"/>
@@ -36294,7 +36294,7 @@
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>[38.15883823]</t>
+          <t>[38.1612695]</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr"/>
@@ -36317,7 +36317,7 @@
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>[2.49701458e+09 2.49701458e+09 3.37794715e+07 0.00000000e+00
+          <t>[2.49720247e+09 2.49720247e+09 3.37768590e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36341,7 +36341,7 @@
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>[2651945.61318154]</t>
+          <t>[2651939.61835101]</t>
         </is>
       </c>
       <c r="E1370" t="inlineStr"/>
@@ -36364,7 +36364,7 @@
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>[7041688.58483098]</t>
+          <t>[7041675.44768878]</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr"/>
@@ -36414,7 +36414,7 @@
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>[0.23408736]</t>
+          <t>[0.23408707]</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr"/>
@@ -36437,7 +36437,7 @@
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>[0.23556985]</t>
+          <t>[0.23556966]</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr"/>
@@ -36460,7 +36460,7 @@
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>[0.23408736 0.23556985 0.94242714 1.03302481 1.14387114 2.03105524]</t>
+          <t>[0.23408707 0.23556966 0.94240879 1.03299982 1.14383286 2.03091371]</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr"/>
@@ -36483,7 +36483,7 @@
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>[0.23556985 1.14387114 2.17779543]</t>
+          <t>[0.23556966 1.14383286 2.17766136]</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr"/>
@@ -36506,7 +36506,7 @@
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>[0.23408736 1.03302481 2.03105524]</t>
+          <t>[0.23408707 1.03299982 2.03091371]</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr"/>
@@ -36529,7 +36529,7 @@
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>[4.41726241 0.         0.        ]</t>
+          <t>[4.41721052 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr"/>
@@ -36548,12 +36548,12 @@
       <c r="C1379" t="inlineStr"/>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>[[ 9.84956881e-01 -4.21591056e-03 -4.13695572e-01  1.01256993e+00
-  -5.79615333e-01]
- [-2.69149102e+00  2.46085586e+00  4.02010856e-01  1.30476284e+00
-  -4.76138530e-01]
- [-4.34675995e+00  7.20912322e+00  6.73328866e+00 -4.81093681e+00
-  -3.78471512e+00]]</t>
+          <t>[[ 9.85236759e-01 -4.15931960e-03 -4.17420237e-01  1.01898936e+00
+  -5.82646566e-01]
+ [-2.69230212e+00  2.45978967e+00  4.11670770e-01  1.29202751e+00
+  -4.71185832e-01]
+ [-4.34799111e+00  7.20718110e+00  6.75098189e+00 -4.83362326e+00
+  -3.77654862e+00]]</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr"/>
@@ -36572,12 +36572,12 @@
       <c r="C1380" t="inlineStr"/>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>[[ 9.76471280e-01 -7.22584073e-04 -4.11312092e-01  1.00478071e+00
-  -5.69217310e-01]
- [-2.74456315e+00  2.30905465e+00  3.66397520e-01  8.39203281e-01
-   2.29907694e-01]
- [-3.93846319e+00  6.09311813e+00  4.73092032e+00 -1.65339511e+00
-  -4.23218015e+00]]</t>
+          <t>[[ 9.76748282e-01 -6.67992447e-04 -4.15008144e-01  1.01115829e+00
+  -5.72230437e-01]
+ [-2.74540110e+00  2.30802409e+00  3.76072702e-01  8.26423735e-01
+   2.34880570e-01]
+ [-3.93949704e+00  6.09112968e+00  4.74649751e+00 -1.67349486e+00
+  -4.22463529e+00]]</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr"/>
@@ -36596,7 +36596,7 @@
       <c r="C1381" t="inlineStr"/>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>[[ -1.30805004  12.06357624 -38.30278364  51.91897879 -23.37172135]
+          <t>[[ -1.30774026  12.05735551 -38.28567333  51.9026938  -23.36663572]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -36617,9 +36617,9 @@
       <c r="C1382" t="inlineStr"/>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>[[ 0.78569896  1.28771736 -3.31337248  3.85692653 -1.61697037]
- [-0.53268676  3.17772225 -6.50771932  8.06978607 -3.20710222]
- [ 1.05602011 -0.1939822   6.12858649 -7.02580832  1.03518391]]</t>
+          <t>[[ 0.78515469  1.2878802  -3.31068182  3.8530777  -1.61543077]
+ [-0.53231307  3.17553123 -6.50177879  8.06332157 -3.20476093]
+ [ 1.0559452  -0.19508261  6.13604134 -7.03669865  1.03979471]]</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr"/>
@@ -36638,9 +36638,9 @@
       <c r="C1383" t="inlineStr"/>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>[[ 0.77411586  1.3076672  -3.35993649  3.90951038 -1.63135695]
- [-0.64162663  3.43174281 -7.34311338  8.9338388  -3.3808416 ]
- [ 0.72364765  0.41810357  3.6774007  -3.77611508 -0.04303684]]</t>
+          <t>[[ 0.77357663  1.30781681 -3.35723774  3.90566481 -1.62982051]
+ [-0.6412093   3.42947081 -7.33724573  8.92764547 -3.37866125]
+ [ 0.72361218  0.41682512  3.68425876 -3.78572966 -0.03896639]]</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr"/>
@@ -36659,7 +36659,7 @@
       <c r="C1384" t="inlineStr"/>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>[[ -3.42574155  27.70727155 -76.0098414   91.02499425 -38.29668285]
+          <t>[[ -3.4266754   27.71280161 -76.00870373  91.00817541 -38.28559789]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -36684,37 +36684,37 @@
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>[[1.36087622e-04]
- [4.46161987e-04]
- [3.10140324e-04]
- [4.55787583e-03]
- [6.42740160e-03]
- [8.46053555e-03]
- [1.06556238e-02]
- [1.30126701e-02]
- [1.55306887e-02]
- [1.82079980e-02]
- [2.40613018e-02]
- [3.05762338e-02]
- [3.77383248e-02]
- [4.55597833e-02]
- [5.40421483e-02]
- [6.31699282e-02]
- [6.79779597e-02]
- [7.29507709e-02]
- [7.80863058e-02]
- [1.19095723e-01]
- [1.68742229e-01]
- [2.26177045e-01]
- [3.25763737e-01]
- [4.46339858e-01]
- [5.83443589e-01]
- [6.75952052e-01]
- [7.77371874e-01]
- [8.85165473e-01]
- [9.90033712e-01]
- [1.09715602e+00]
- [1.20233402e+00]]</t>
+          <t>[[1.36090691e-04]
+ [4.46162945e-04]
+ [3.10125411e-04]
+ [4.55785827e-03]
+ [6.42737404e-03]
+ [8.46051979e-03]
+ [1.06556414e-02]
+ [1.30128736e-02]
+ [1.55312834e-02]
+ [1.82091869e-02]
+ [2.40639790e-02]
+ [3.05806973e-02]
+ [3.77448661e-02]
+ [4.55684490e-02]
+ [5.40528355e-02]
+ [6.31825363e-02]
+ [6.79913456e-02]
+ [7.29647170e-02]
+ [7.81005972e-02]
+ [1.19109897e-01]
+ [1.68752514e-01]
+ [2.26180043e-01]
+ [3.25758551e-01]
+ [4.46333451e-01]
+ [5.83441456e-01]
+ [6.75953971e-01]
+ [7.77378220e-01]
+ [8.85176468e-01]
+ [9.90049017e-01]
+ [1.09717561e+00]
+ [1.20235790e+00]]</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr"/>
@@ -36737,7 +36737,7 @@
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>[1.20233402]</t>
+          <t>[1.2023579]</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr"/>
@@ -36760,24 +36760,24 @@
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>[[-33707784.19330332]
- [-32302855.17876101]
- [-30584717.09191235]
- [-30046337.70641644]
- [-29506988.6430056 ]
- [-28965688.4868498 ]
- [-28427837.11148568]
- [-27885987.55414706]
- [-27339047.38594536]
- [-26283338.05439224]
- [-25191999.52569795]
- [-24052383.00316959]
- [-23122084.06420719]
- [-22376192.36819787]
- [-21629974.74119956]
- [-21277978.79114738]
- [-20925932.19221902]
- [-20573839.77064421]]</t>
+          <t>[[-33707695.67735592]
+ [-32302734.58155911]
+ [-30584564.41345604]
+ [-30046243.98724103]
+ [-29506953.88311113]
+ [-28965712.68623503]
+ [-28428416.74751568]
+ [-27887122.62682189]
+ [-27340737.89526493]
+ [-26285393.7473453 ]
+ [-25194420.40228355]
+ [-24055169.06338858]
+ [-23124752.78045433]
+ [-22378743.74047332]
+ [-21632408.76950346]
+ [-21279942.00709117]
+ [-20927424.59580235]
+ [-20574861.36186709]]</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr"/>
@@ -36800,24 +36800,24 @@
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>[[ -3022683.81822393]
- [-10155159.76403004]
- [-13182228.94560681]
- [  2938015.11213329]
- [  2938042.08376637]
- [  2938069.51820088]
- [  2938093.31416695]
- [  2938122.23126991]
- [  2938152.12443974]
- [  2938637.45799361]
- [  2938775.3380753 ]
- [  2938930.80892414]
- [  2938877.71415769]
- [  2938661.59664617]
- [  2938734.28316431]
- [  2938220.34387794]
- [  2938237.8221364 ]
- [  2938255.08055473]]</t>
+          <t>[[ -3022751.99343441]
+ [-10155243.25962259]
+ [-13182166.85664291]
+ [  2938015.07744814]
+ [  2938042.04971656]
+ [  2938069.48480083]
+ [  2938092.95140519]
+ [  2938121.87526243]
+ [  2938151.77578596]
+ [  2938637.37243667]
+ [  2938775.27249071]
+ [  2938930.76988777]
+ [  2938878.16832109]
+ [  2938661.97214443]
+ [  2938734.65886749]
+ [  2938221.10522048]
+ [  2938238.58375339]
+ [  2938255.84243405]]</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr"/>
@@ -36840,24 +36840,24 @@
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>[[-13565.45454789]
- [-45891.14168375]
- [-61204.80247896]
- [  8739.50310424]
- [  8739.62484268]
- [  8739.7490387 ]
- [  8739.85731956]
- [  8739.98896908]
- [  8740.12542411]
- [  8742.3050297 ]
- [  8742.93905853]
- [  8743.65694449]
- [  8743.43503548]
- [  8742.47256375]
- [  8742.82039016]
- [  8740.48219071]
- [  8740.56699742]
- [  8740.65113969]]</t>
+          <t>[[-13565.76322262]
+ [-45891.53145328]
+ [-61204.54920734]
+ [  8739.50294932]
+ [  8739.62469066]
+ [  8739.74888964]
+ [  8739.85569421]
+ [  8739.98737449]
+ [  8740.12386311]
+ [  8742.30466025]
+ [  8742.93878099]
+ [  8743.65678959]
+ [  8743.43711803]
+ [  8742.47428371]
+ [  8742.82211117]
+ [  8740.48567971]
+ [  8740.57048778]
+ [  8740.65463135]]</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
@@ -36880,24 +36880,24 @@
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>[[ -114379.79978299]
- [ -760412.48148951]
- [-1864870.01526144]
- [-2215693.95701744]
- [-2200858.70468986]
- [-2186006.67929986]
- [-2171138.63965187]
- [-2156255.37523708]
- [-2141357.8645557 ]
- [-2111513.53598096]
- [-2081616.26235544]
- [-2051674.87763075]
- [-2021695.88777201]
- [-1991677.30971353]
- [-1961618.38845912]
- [-1946579.00017367]
- [-1931530.4203178 ]
- [-1916473.25910389]]</t>
+          <t>[[ -114383.15545796]
+ [ -760423.01253771]
+ [-1864875.80884505]
+ [-2215694.50838822]
+ [-2200859.25544289]
+ [-2186007.22606563]
+ [-2171139.1635457 ]
+ [-2156255.8437805 ]
+ [-2141358.24566064]
+ [-2111513.6879362 ]
+ [-2081616.14011581]
+ [-2051674.43778389]
+ [-2021695.11362345]
+ [-1991676.21746484]
+ [-1961616.99244911]
+ [-1946577.47235152]
+ [-1931528.79321148]
+ [-1916471.5650894 ]]</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr"/>
@@ -36920,24 +36920,24 @@
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>[[2.58318530e+07]
- [1.70631894e+08]
- [4.13814890e+08]
- [4.90759360e+08]
- [4.85802084e+08]
- [4.80841127e+08]
- [4.75876666e+08]
- [4.70908898e+08]
- [4.65938051e+08]
- [4.55985679e+08]
- [4.46022072e+08]
- [4.36049272e+08]
- [4.26068771e+08]
- [4.16080260e+08]
- [4.06083641e+08]
- [4.01083440e+08]
- [3.96081442e+08]
- [3.91077789e+08]]</t>
+          <t>[[2.58326088e+07]
+ [1.70634233e+08]
+ [4.13816099e+08]
+ [4.90759386e+08]
+ [4.85802111e+08]
+ [4.80841153e+08]
+ [4.75876687e+08]
+ [4.70908905e+08]
+ [4.65938039e+08]
+ [4.55985617e+08]
+ [4.46021949e+08]
+ [4.36049079e+08]
+ [4.26068505e+08]
+ [4.16079925e+08]
+ [4.06083240e+08]
+ [4.01083010e+08]
+ [3.96080990e+08]
+ [3.91077323e+08]]</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
@@ -36960,24 +36960,24 @@
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>[[ 884712.66233968]
- [1998730.00147391]
- [3630801.21009635]
- [6203330.94444827]
- [6203318.56463018]
- [6203306.16256427]
- [6203303.69888284]
- [6203291.14594146]
- [6203278.49973769]
- [6203312.88275056]
- [6203286.42283173]
- [6203259.07015282]
- [6203272.95199999]
- [6203247.99395062]
- [6203227.98332171]
- [6203243.06589865]
- [6203233.05139084]
- [6203223.03547439]]</t>
+          <t>[[ 884722.48172393]
+ [1998747.00968068]
+ [3630818.12304746]
+ [6203331.03481993]
+ [6203318.65467501]
+ [6203306.25227929]
+ [6203304.57759368]
+ [6203292.02129171]
+ [6203279.37160592]
+ [6203313.23804496]
+ [6203286.77513194]
+ [6203259.41904878]
+ [6203272.923187  ]
+ [6203247.96592979]
+ [6203227.95531209]
+ [6203242.3079473 ]
+ [6203232.29349742]
+ [6203222.27764085]]</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr"/>
@@ -37000,9 +37000,9 @@
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>[[ 2.93801511e+06]
- [ 8.73950310e+03]
- [-3.05847171e+07]]</t>
+          <t>[[ 2.93801508e+06]
+ [ 8.73950295e+03]
+ [-3.05845644e+07]]</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr"/>
@@ -37025,9 +37025,9 @@
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>[[-2.23051149e+06]
- [ 4.95712726e+08]
- [ 6.20333094e+06]]</t>
+          <t>[[-2.23051203e+06]
+ [ 4.95712752e+08]
+ [ 6.20333103e+06]]</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
@@ -37083,8 +37083,8 @@
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
- 10.          9.99997524  9.99995049  9.99992573  8.66661716  7.3333086
-  6.00000003]</t>
+ 10.         10.         10.         10.          8.66666752  7.33333503
+  6.00000255]</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr"/>
@@ -37107,11 +37107,11 @@
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>[0.054943   0.054943   0.054943   0.10225972 0.10225972 0.10225972
- 0.10073409 0.10073409 0.10073409 0.09373654 0.09373654 0.09373654
- 0.08751588 0.08751588 0.08751588 0.08248204 0.08248204 0.08248204
- 0.0675406  0.0675406  0.0675406  0.03725595 0.03725595 0.03725595
- 0.01404628 0.01404628 0.01404628 0.01259864 0.01259864 0.01259864]</t>
+          <t>[0.05494426 0.05494426 0.05494426 0.10224567 0.10224567 0.10224567
+ 0.1006018  0.1006018  0.1006018  0.09369312 0.09369312 0.09369312
+ 0.08752982 0.08752982 0.08752982 0.08259375 0.08259375 0.08259375
+ 0.06757061 0.06757061 0.06757061 0.03724346 0.03724346 0.03724346
+ 0.0140456  0.0140456  0.0140456  0.01259863 0.01259863 0.01259863]</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -37210,11 +37210,11 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>[1.83676377 1.83676377 1.83676377 3.40231319 3.40231319 3.40231319
- 3.35207007 3.35207007 3.35207007 3.12142181 3.12142181 3.12142181
- 2.91610414 2.91610414 2.91610414 2.74976784 2.74976784 2.74976784
- 2.25504587 2.25504587 2.25504587 1.24769448 1.24769448 1.24769448
- 0.47150259 0.47150142 0.47150025 0.39473397 0.33826786 0.28180174]</t>
+          <t>[1.83680554 1.83680554 1.83680554 3.40185078 3.40185078 3.40185078
+ 3.34771288 3.34771288 3.34771288 3.11998944 3.11998944 3.11998944
+ 2.91656434 2.91656434 2.91656434 2.7534612  2.7534612  2.7534612
+ 2.25604096 2.25604096 2.25604096 1.24727763 1.24727763 1.24727763
+ 0.47148028 0.47148028 0.47148028 0.39473641 0.33826931 0.28180221]</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr"/>
@@ -37237,11 +37237,11 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>[1.04487699 1.04487699 1.04487699 1.93976108 1.93976108 1.93976108
- 1.91097684 1.91097684 1.91097684 1.77889489 1.77889489 1.77889489
- 1.66139573 1.66139573 1.66139573 1.56625757 1.56625757 1.56625756
- 1.28357024 1.28357024 1.28357024 0.70920267 0.70920267 0.70920267
- 0.26772904 0.26772837 0.26772771 0.22413278 0.19209005 0.16004736]</t>
+          <t>[1.04490081 1.04490081 1.04490081 1.93949615 1.93949615 1.93949615
+ 1.90848082 1.90848082 1.90848082 1.77807492 1.77807492 1.77807492
+ 1.66165901 1.66165901 1.66165901 1.56836952 1.56836952 1.56836952
+ 1.28413844 1.28413844 1.28413844 0.70896533 0.70896533 0.70896533
+ 0.26771636 0.26771636 0.26771636 0.22413416 0.19209087 0.16004762]</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr"/>
@@ -37264,11 +37264,11 @@
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>[1.04487699 1.04487699 1.04487699 1.93976108 1.93976108 1.93976108
- 1.91097684 1.91097684 1.91097684 1.77889489 1.77889489 1.77889489
- 1.66139573 1.66139573 1.66139573 1.56625757 1.56625757 1.56625756
- 1.28357024 1.28357024 1.28357024 0.70920267 0.70920267 0.70920267
- 0.26772904 0.26772837 0.26772771 0.22413278 0.19209005 0.16004736]</t>
+          <t>[1.04490081 1.04490081 1.04490081 1.93949615 1.93949615 1.93949615
+ 1.90848082 1.90848082 1.90848082 1.77807492 1.77807492 1.77807492
+ 1.66165901 1.66165901 1.66165901 1.56836952 1.56836952 1.56836952
+ 1.28413844 1.28413844 1.28413844 0.70896533 0.70896533 0.70896533
+ 0.26771636 0.26771636 0.26771636 0.22413416 0.19209087 0.16004762]</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr"/>
@@ -37291,11 +37291,11 @@
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>[45.41728    45.41728    45.41727999 83.33602078 83.33602079 83.3360208
- 82.13042053 82.13042052 82.13042052 76.58630203 76.58630203 76.58630203
- 71.63774363 71.63774363 71.63774363 67.61951737 67.61951737 67.61951736
- 55.61975444 55.61975442 55.6197544  30.96080759 30.9608076  30.96080762
- 11.75446783 11.75438041 11.75429299  8.5731384   5.39521558  3.11930686]</t>
+          <t>[45.41830148 45.41830148 45.41830148 83.32492866 83.32492866 83.32492866
+ 82.02583302 82.02583302 82.02583302 76.55182254 76.55182254 76.55182254
+ 71.64884942 71.64884942 71.64884942 67.70882823 67.70882823 67.70882823
+ 55.64396406 55.64396406 55.64396406 30.95054111 30.95054111 30.95054111
+ 11.75394248 11.75394248 11.75394248  8.57330591  5.39529059  3.11932561]</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr"/>
@@ -37318,11 +37318,11 @@
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>[22.70864    22.70864    22.70864    41.66801039 41.6680104  41.6680104
- 41.06521026 41.06521026 41.06521026 38.29315101 38.29315101 38.29315102
- 35.81887182 35.81887182 35.81887181 33.80975869 33.80975868 33.80975868
- 27.80987722 27.80987721 27.8098772  15.4804038  15.4804038  15.48040381
-  5.87723392  5.8771902   5.87714649  4.2865692   2.69760779  1.55965343]</t>
+          <t>[22.70915074 22.70915074 22.70915074 41.66246433 41.66246433 41.66246433
+ 41.01291651 41.01291651 41.01291651 38.27591127 38.27591127 38.27591127
+ 35.82442471 35.82442471 35.82442471 33.85441411 33.85441411 33.85441411
+ 27.82198203 27.82198203 27.82198203 15.47527056 15.47527056 15.47527056
+  5.87697124  5.87697124  5.87697124  4.28665295  2.69764529  1.55966281]</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr"/>
@@ -37345,11 +37345,11 @@
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>[22.70864    22.70864    22.70864    41.66801039 41.6680104  41.6680104
- 41.06521026 41.06521026 41.06521026 38.29315101 38.29315101 38.29315102
- 35.81887182 35.81887182 35.81887181 33.80975869 33.80975868 33.80975868
- 27.80987722 27.80987721 27.8098772  15.4804038  15.4804038  15.48040381
-  5.87723392  5.8771902   5.87714649  4.2865692   2.69760779  1.55965343]</t>
+          <t>[22.70915074 22.70915074 22.70915074 41.66246433 41.66246433 41.66246433
+ 41.01291651 41.01291651 41.01291651 38.27591127 38.27591127 38.27591127
+ 35.82442471 35.82442471 35.82442471 33.85441411 33.85441411 33.85441411
+ 27.82198203 27.82198203 27.82198203 15.47527056 15.47527056 15.47527056
+  5.87697124  5.87697124  5.87697124  4.28665295  2.69764529  1.55966281]</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
@@ -37474,36 +37474,36 @@
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[[-3.37077842e+07]
- [-3.23028552e+07]
- [-3.05847171e+07]
- [-3.00463377e+07]
- [-2.95069886e+07]
- [-2.89656885e+07]
- [-2.84278371e+07]
- [-2.78859876e+07]
- [-2.73390474e+07]
- [-2.62833381e+07]
- [-2.51919995e+07]
- [-2.40523830e+07]
- [-2.31220841e+07]
- [-2.23761924e+07]
- [-2.16299747e+07]
- [-2.12779788e+07]
- [-2.09259322e+07]
- [-2.05738398e+07]
- [-1.75791385e+07]
- [-1.55642579e+07]
- [-1.35479836e+07]
- [-1.19444195e+07]
- [-1.03394165e+07]
- [-8.73299036e+06]
- [-8.35939912e+06]
- [-7.98528947e+06]
- [-7.61082611e+06]
- [-7.31556871e+06]
- [-7.06125495e+06]
- [ 1.03318598e-08]]</t>
+          <t>[[-3.37076957e+07]
+ [-3.23027346e+07]
+ [-3.05845644e+07]
+ [-3.00462440e+07]
+ [-2.95069539e+07]
+ [-2.89657127e+07]
+ [-2.84284167e+07]
+ [-2.78871226e+07]
+ [-2.73407379e+07]
+ [-2.62853937e+07]
+ [-2.51944204e+07]
+ [-2.40551691e+07]
+ [-2.31247528e+07]
+ [-2.23787437e+07]
+ [-2.16324088e+07]
+ [-2.12799420e+07]
+ [-2.09274246e+07]
+ [-2.05748614e+07]
+ [-1.75792759e+07]
+ [-1.55635112e+07]
+ [-1.35463527e+07]
+ [-1.19433175e+07]
+ [-1.03388434e+07]
+ [-8.73294620e+06]
+ [-8.35937195e+06]
+ [-7.98527837e+06]
+ [-7.61083015e+06]
+ [-7.31557090e+06]
+ [-7.06125600e+06]
+ [ 1.70257408e-09]]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -37526,36 +37526,36 @@
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[[-3.02268382e+06]
- [-1.01551598e+07]
- [-1.31822289e+07]
- [ 2.93801511e+06]
- [ 2.93804208e+06]
- [ 2.93806952e+06]
- [ 2.93809331e+06]
- [ 2.93812223e+06]
- [ 2.93815212e+06]
- [ 2.93863746e+06]
- [ 2.93877534e+06]
- [ 2.93893081e+06]
- [ 2.93887771e+06]
- [ 2.93866160e+06]
- [ 2.93873428e+06]
- [ 2.93822034e+06]
- [ 2.93823782e+06]
- [ 2.93825508e+06]
- [ 2.94126906e+06]
- [ 2.94201923e+06]
- [ 2.94269847e+06]
- [ 2.94252639e+06]
- [ 2.94354588e+06]
- [ 2.94435142e+06]
+          <t>[[-3.02275199e+06]
+ [-1.01552433e+07]
+ [-1.31821669e+07]
+ [ 2.93801508e+06]
+ [ 2.93804205e+06]
+ [ 2.93806948e+06]
+ [ 2.93809295e+06]
+ [ 2.93812188e+06]
+ [ 2.93815178e+06]
+ [ 2.93863737e+06]
+ [ 2.93877527e+06]
+ [ 2.93893077e+06]
+ [ 2.93887817e+06]
+ [ 2.93866197e+06]
+ [ 2.93873466e+06]
+ [ 2.93822111e+06]
+ [ 2.93823858e+06]
+ [ 2.93825584e+06]
+ [ 2.94127062e+06]
+ [ 2.94202078e+06]
+ [ 2.94270002e+06]
+ [ 2.94252440e+06]
+ [ 2.94354390e+06]
+ [ 2.94434944e+06]
  [ 2.93944881e+06]
  [ 2.93961897e+06]
- [ 2.93974072e+06]
- [ 2.93937959e+06]
- [ 2.93918153e+06]
- [ 1.20402970e+03]]</t>
+ [ 2.93974073e+06]
+ [ 2.93937967e+06]
+ [ 2.93918160e+06]
+ [ 1.20408104e+03]]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -37578,36 +37578,36 @@
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>[[-1.35654545e+04]
- [-4.58911417e+04]
- [-6.12048025e+04]
- [ 8.73950310e+03]
- [ 8.73962484e+03]
- [ 8.73974904e+03]
- [ 8.73985732e+03]
- [ 8.73998897e+03]
- [ 8.74012542e+03]
- [ 8.74230503e+03]
- [ 8.74293906e+03]
- [ 8.74365694e+03]
- [ 8.74343504e+03]
- [ 8.74247256e+03]
- [ 8.74282039e+03]
- [ 8.74048219e+03]
- [ 8.74056700e+03]
- [ 8.74065114e+03]
- [ 8.75464538e+03]
- [ 8.75846000e+03]
- [ 8.76206545e+03]
- [ 8.76193121e+03]
- [ 8.76818069e+03]
- [ 8.77378652e+03]
- [ 8.74797379e+03]
- [ 8.74965581e+03]
- [ 8.75118930e+03]
- [ 8.74967932e+03]
- [ 8.74949130e+03]
- [ 1.00569473e+01]]</t>
+          <t>[[-1.35657632e+04]
+ [-4.58915315e+04]
+ [-6.12045492e+04]
+ [ 8.73950295e+03]
+ [ 8.73962469e+03]
+ [ 8.73974889e+03]
+ [ 8.73985569e+03]
+ [ 8.73998737e+03]
+ [ 8.74012386e+03]
+ [ 8.74230466e+03]
+ [ 8.74293878e+03]
+ [ 8.74365679e+03]
+ [ 8.74343712e+03]
+ [ 8.74247428e+03]
+ [ 8.74282211e+03]
+ [ 8.74048568e+03]
+ [ 8.74057049e+03]
+ [ 8.74065463e+03]
+ [ 8.75465242e+03]
+ [ 8.75846704e+03]
+ [ 8.76207250e+03]
+ [ 8.76192122e+03]
+ [ 8.76817072e+03]
+ [ 8.77377657e+03]
+ [ 8.74797399e+03]
+ [ 8.74965603e+03]
+ [ 8.75118954e+03]
+ [ 8.74968000e+03]
+ [ 8.74949186e+03]
+ [ 1.00573777e+01]]</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr"/>
@@ -37630,36 +37630,36 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>[[-1.14379800e+05]
- [-7.60412481e+05]
- [-1.86487002e+06]
- [-2.21569396e+06]
- [-2.20085870e+06]
- [-2.18600668e+06]
- [-2.17113864e+06]
- [-2.15625538e+06]
- [-2.14135786e+06]
- [-2.11151354e+06]
- [-2.08161626e+06]
- [-2.05167488e+06]
- [-2.02169589e+06]
- [-1.99167731e+06]
- [-1.96161839e+06]
- [-1.94657900e+06]
- [-1.93153042e+06]
- [-1.91647326e+06]
- [-1.81127345e+06]
- [-1.70568036e+06]
- [-1.59991504e+06]
- [-1.44828763e+06]
- [-1.29590427e+06]
- [-1.14332568e+06]
- [-1.05177126e+06]
- [-9.59676505e+05]
- [-8.67164408e+05]
- [-7.80465509e+05]
- [-6.93236947e+05]
- [-2.18343624e-04]]</t>
+          <t>[[-1.14383155e+05]
+ [-7.60423013e+05]
+ [-1.86487581e+06]
+ [-2.21569451e+06]
+ [-2.20085926e+06]
+ [-2.18600723e+06]
+ [-2.17113916e+06]
+ [-2.15625584e+06]
+ [-2.14135825e+06]
+ [-2.11151369e+06]
+ [-2.08161614e+06]
+ [-2.05167444e+06]
+ [-2.02169511e+06]
+ [-1.99167622e+06]
+ [-1.96161699e+06]
+ [-1.94657747e+06]
+ [-1.93152879e+06]
+ [-1.91647157e+06]
+ [-1.81127161e+06]
+ [-1.70567887e+06]
+ [-1.59991436e+06]
+ [-1.44828835e+06]
+ [-1.29590570e+06]
+ [-1.14332716e+06]
+ [-1.05177245e+06]
+ [-9.59677398e+05]
+ [-8.67164982e+05]
+ [-7.80465788e+05]
+ [-6.93236955e+05]
+ [-2.18353183e-04]]</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr"/>
@@ -37682,36 +37682,36 @@
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>[[ 2.58318530e+07]
- [ 1.70631894e+08]
- [ 4.13814890e+08]
- [ 4.90759360e+08]
- [ 4.85802084e+08]
- [ 4.80841127e+08]
- [ 4.75876666e+08]
- [ 4.70908898e+08]
- [ 4.65938051e+08]
- [ 4.55985679e+08]
- [ 4.46022072e+08]
- [ 4.36049272e+08]
- [ 4.26068771e+08]
- [ 4.16080260e+08]
- [ 4.06083641e+08]
- [ 4.01083440e+08]
- [ 3.96081442e+08]
- [ 3.91077789e+08]
- [ 3.56158481e+08]
- [ 3.21169110e+08]
- [ 2.86158552e+08]
- [ 2.36072341e+08]
- [ 1.85893898e+08]
- [ 1.35738095e+08]
- [ 1.05686670e+08]
- [ 7.55960645e+07]
- [ 4.54925070e+07]
- [ 1.74010967e+07]
- [-1.06758298e+07]
- [ 2.61400856e-02]]</t>
+          <t>[[ 2.58326088e+07]
+ [ 1.70634233e+08]
+ [ 4.13816099e+08]
+ [ 4.90759386e+08]
+ [ 4.85802111e+08]
+ [ 4.80841153e+08]
+ [ 4.75876687e+08]
+ [ 4.70908905e+08]
+ [ 4.65938039e+08]
+ [ 4.55985617e+08]
+ [ 4.46021949e+08]
+ [ 4.36049079e+08]
+ [ 4.26068505e+08]
+ [ 4.16079925e+08]
+ [ 4.06083240e+08]
+ [ 4.01083010e+08]
+ [ 3.96080990e+08]
+ [ 3.91077323e+08]
+ [ 3.56157975e+08]
+ [ 3.21168666e+08]
+ [ 2.86158264e+08]
+ [ 2.36072326e+08]
+ [ 1.85894030e+08]
+ [ 1.35738262e+08]
+ [ 1.05686805e+08]
+ [ 7.55961660e+07]
+ [ 4.54925726e+07]
+ [ 1.74011291e+07]
+ [-1.06758290e+07]
+ [ 2.61415057e-02]]</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr"/>
@@ -37734,35 +37734,35 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[[ 884712.66233968]
- [1998730.00147391]
- [3630801.21009635]
- [6203330.94444827]
- [6203318.56463018]
- [6203306.16256427]
- [6203303.69888284]
- [6203291.14594146]
- [6203278.49973769]
- [6203312.88275056]
- [6203286.42283173]
- [6203259.07015282]
- [6203272.95199999]
- [6203247.99395062]
- [6203227.98332171]
- [6203243.06589865]
- [6203233.05139084]
- [6203223.03547439]
- [6203307.41280481]
- [6203237.5394494 ]
- [6203167.639487  ]
- [6203477.17099271]
- [6203376.61858743]
- [6203275.97921391]
- [6204076.78772059]
- [6204014.7880757 ]
- [6203952.70325262]
- [6204136.20510639]
- [6204319.77050902]
+          <t>[[ 884722.48172393]
+ [1998747.00968068]
+ [3630818.12304746]
+ [6203331.03481993]
+ [6203318.65467501]
+ [6203306.25227929]
+ [6203304.57759368]
+ [6203292.02129171]
+ [6203279.37160592]
+ [6203313.23804496]
+ [6203286.77513194]
+ [6203259.41904878]
+ [6203272.923187  ]
+ [6203247.96592979]
+ [6203227.95531209]
+ [6203242.3079473 ]
+ [6203232.29349742]
+ [6203222.27764085]
+ [6203307.14674137]
+ [6203237.27354898]
+ [6203167.37376201]
+ [6203477.35095222]
+ [6203376.79810906]
+ [6203276.15826751]
+ [6204076.84733661]
+ [6204014.84408298]
+ [6203952.75587542]
+ [6204136.1948883 ]
+ [6204319.76204182]
  [      0.        ]]</t>
         </is>
       </c>
@@ -37786,24 +37786,24 @@
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>[[-12663998.94217066]
- [ 19983359.26179019]
- [ 74463484.10599819]
- [ 50058674.32189254]
- [ 49622342.71818258]
- [ 49186142.7386662 ]
- [ 49461506.04010917]
- [ 49018286.89289092]
- [ 48576211.68966018]
- [ 51119132.32206285]
- [ 50167792.19426514]
- [ 49230718.47659639]
- [ 51547027.92957536]
- [ 50408499.03341975]
- [ 49268950.19227731]
- [ 51577342.97172406]
- [ 50965641.69742023]
- [ 50353712.44447603]]</t>
+          <t>[[-12663494.91603657]
+ [ 19983494.99743675]
+ [ 74462163.01129334]
+ [ 50065344.03293669]
+ [ 49628937.44235522]
+ [ 49192662.40569197]
+ [ 49524176.92390696]
+ [ 49080229.47875627]
+ [ 48637426.61903656]
+ [ 51141416.54105523]
+ [ 50189526.0319288 ]
+ [ 49251907.2729831 ]
+ [ 51538108.00138228]
+ [ 50399785.416209  ]
+ [ 49260443.47756613]
+ [ 51508706.4206921 ]
+ [ 50897976.93390294]
+ [ 50287020.77217281]]</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr"/>
@@ -37826,24 +37826,24 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>[[ 2990288.31362104]
- [ 9939140.2542832 ]
- [13015910.08977138]
- [ 1886821.87027816]
- [ 1886835.03218944]
- [ 1886848.43135544]
- [ 1915138.8074253 ]
- [ 1915153.17548573]
- [ 1915168.04864224]
- [ 2056941.24861357]
- [ 2057017.03068885]
- [ 2057102.64316884]
- [ 2201889.99826029]
- [ 2201758.17329017]
- [ 2201800.52737822]
- [ 2334645.28030694]
- [ 2334655.69924192]
- [ 2334665.97771195]]</t>
+          <t>[[ 2990286.49415266]
+ [ 9938995.49628244]
+ [13015555.89784981]
+ [ 1887078.29914129]
+ [ 1887091.46322588]
+ [ 1887104.86460484]
+ [ 1917631.01186395]
+ [ 1917645.40205069]
+ [ 1917660.29830096]
+ [ 2057885.43878819]
+ [ 2057961.26689193]
+ [ 2058046.93360591]
+ [ 2201542.87947956]
+ [ 2201411.02806577]
+ [ 2201453.37552393]
+ [ 2331514.52748933]
+ [ 2331524.93247411]
+ [ 2331535.19717552]]</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
@@ -37868,22 +37868,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-9.73246600e+06]
- [-1.00047029e+07]
- [-9.20014316e+06]
- [-8.40182929e+06]
- [-7.72634076e+06]
- [-6.92897974e+06]
- [-6.13859239e+06]
- [-5.34470686e+06]
- [-3.69586985e+06]
- [-2.08753334e+06]
- [-6.96268528e+05]
- [-5.84198515e+03]
- [-6.65010127e+03]
- [-7.54225547e+03]
- [-7.80684112e+03]
- [-8.04563456e+03]]</t>
+ [-9.73224221e+06]
+ [-1.00060912e+07]
+ [-9.20141982e+06]
+ [-8.40299518e+06]
+ [-7.73660368e+06]
+ [-6.93818352e+06]
+ [-6.14674630e+06]
+ [-5.34720747e+06]
+ [-3.69759902e+06]
+ [-2.08851003e+06]
+ [-6.96156708e+05]
+ [-5.84104693e+03]
+ [-6.64903327e+03]
+ [-7.53196895e+03]
+ [-7.79619374e+03]
+ [-8.03466150e+03]]</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37942,24 +37942,24 @@
       <c r="C1420" t="inlineStr"/>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>[[0.06960071]
- [0.13417364]
- [0.42171104]
- [0.28402658]
- [0.27928423]
- [0.27459208]
- [0.27390777]
- [0.26924629]
- [0.26464516]
- [0.27524343]
- [0.26572103]
- [0.25655046]
- [0.26471812]
- [0.25717343]
- [0.25139557]
- [0.26319596]
- [0.26009457]
- [0.25699219]]</t>
+          <t>[[0.06959833]
+ [0.13417333]
+ [0.42170312]
+ [0.2840646 ]
+ [0.27932152]
+ [0.27462865]
+ [0.27425631]
+ [0.26958792]
+ [0.26497995]
+ [0.27536394]
+ [0.26583654]
+ [0.25666113]
+ [0.26467236]
+ [0.25712899]
+ [0.25135218]
+ [0.26284569]
+ [0.25974923]
+ [0.25665179]]</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr"/>
@@ -37978,24 +37978,24 @@
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>[[0.10950779]
- [0.15823328]
- [0.36645851]
- [0.03893289]
- [0.0372363 ]
- [0.03564005]
- [0.03491397]
- [0.03352067]
- [0.03225933]
- [0.04269627]
- [0.03860513]
- [0.03533167]
- [0.03676286]
- [0.03543751]
- [0.0344803 ]
- [0.03424844]
- [0.03377788]
- [0.03330841]]</t>
+          <t>[[0.10950361]
+ [0.15822762]
+ [0.36643854]
+ [0.03894059]
+ [0.0372437 ]
+ [0.03564718]
+ [0.0349815 ]
+ [0.03358582]
+ [0.03232229]
+ [0.0427343 ]
+ [0.03863825]
+ [0.03536048]
+ [0.03675769]
+ [0.03543292]
+ [0.03447574]
+ [0.03418771]
+ [0.03371741]
+ [0.03324819]]</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr"/>
@@ -38014,24 +38014,24 @@
       <c r="C1422" t="inlineStr"/>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>[[0.11616422]
- [0.25485492]
- [0.48924426]
- [0.30496032]
- [0.30150803]
- [0.29805149]
- [0.29896557]
- [0.29545399]
- [0.29193365]
- [0.30577182]
- [0.29820721]
- [0.29056121]
- [0.30299519]
- [0.29549842]
- [0.28799843]
- [0.30131983]
- [0.29738184]
- [0.29344331]]</t>
+          <t>[[0.11616283]
+ [0.25485278]
+ [0.48923718]
+ [0.30500327]
+ [0.30155058]
+ [0.29809362]
+ [0.2993534 ]
+ [0.29583807]
+ [0.29231395]
+ [0.30591623]
+ [0.29834866]
+ [0.29069965]
+ [0.3029544 ]
+ [0.29545851]
+ [0.2879594 ]
+ [0.30092455]
+ [0.29699091]
+ [0.29305674]]</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr"/>
@@ -38054,36 +38054,36 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>[[-1.26639989e+07]
- [ 1.99833593e+07]
- [ 7.44634841e+07]
- [ 5.00586743e+07]
- [ 4.96223427e+07]
- [ 4.91861427e+07]
- [ 4.94615060e+07]
- [ 4.90182869e+07]
- [ 4.85762117e+07]
- [ 5.11191323e+07]
- [ 5.01677922e+07]
- [ 4.92307185e+07]
- [ 5.15470279e+07]
- [ 5.04084990e+07]
- [ 4.92689502e+07]
- [ 5.15773430e+07]
- [ 5.09656417e+07]
- [ 5.03537124e+07]
- [ 5.62398894e+07]
- [ 5.08425571e+07]
- [ 4.54420371e+07]
- [ 6.66770094e+07]
- [ 5.17563238e+07]
- [ 3.68441634e+07]
- [ 7.21869794e+07]
- [ 4.73821677e+07]
- [ 2.25679556e+07]
- [ 4.30092386e+05]
- [-5.01140863e+06]
- [ 5.58691773e-02]]</t>
+          <t>[[-1.26634949e+07]
+ [ 1.99834950e+07]
+ [ 7.44621630e+07]
+ [ 5.00653440e+07]
+ [ 4.96289374e+07]
+ [ 4.91926624e+07]
+ [ 4.95241769e+07]
+ [ 4.90802295e+07]
+ [ 4.86374266e+07]
+ [ 5.11414165e+07]
+ [ 5.01895260e+07]
+ [ 4.92519073e+07]
+ [ 5.15381080e+07]
+ [ 5.03997854e+07]
+ [ 4.92604435e+07]
+ [ 5.15087064e+07]
+ [ 5.08979769e+07]
+ [ 5.02870208e+07]
+ [ 5.62153155e+07]
+ [ 5.08207290e+07]
+ [ 4.54229733e+07]
+ [ 6.66999814e+07]
+ [ 5.17739734e+07]
+ [ 3.68564568e+07]
+ [ 7.21904439e+07]
+ [ 4.73841535e+07]
+ [ 2.25687131e+07]
+ [ 4.29992438e+05]
+ [-5.01146788e+06]
+ [ 5.58719673e-02]]</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr"/>
@@ -38106,36 +38106,36 @@
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>[[2.99028831e+06]
- [9.93914025e+06]
- [1.30159101e+07]
- [1.88682187e+06]
- [1.88683503e+06]
- [1.88684843e+06]
- [1.91513881e+06]
- [1.91515318e+06]
- [1.91516805e+06]
- [2.05694125e+06]
- [2.05701703e+06]
- [2.05710264e+06]
- [2.20189000e+06]
- [2.20175817e+06]
- [2.20180053e+06]
- [2.33464528e+06]
- [2.33465570e+06]
- [2.33466598e+06]
- [2.84913836e+06]
- [2.84971652e+06]
- [2.85023942e+06]
- [5.15090856e+06]
- [5.15232986e+06]
- [5.15344947e+06]
- [1.36182677e+07]
- [1.36189172e+07]
- [1.36193859e+07]
- [1.64916260e+07]
- [1.99009755e+07]
- [7.52322133e+03]]</t>
+          <t>[[2.99028649e+06]
+ [9.93899550e+06]
+ [1.30155559e+07]
+ [1.88707830e+06]
+ [1.88709146e+06]
+ [1.88710486e+06]
+ [1.91763101e+06]
+ [1.91764540e+06]
+ [1.91766030e+06]
+ [2.05788544e+06]
+ [2.05796127e+06]
+ [2.05804693e+06]
+ [2.20154288e+06]
+ [2.20141103e+06]
+ [2.20145338e+06]
+ [2.33151453e+06]
+ [2.33152493e+06]
+ [2.33153520e+06]
+ [2.84788300e+06]
+ [2.84846091e+06]
+ [2.84898358e+06]
+ [5.15262709e+06]
+ [5.15404888e+06]
+ [5.15516886e+06]
+ [1.36189087e+07]
+ [1.36195180e+07]
+ [1.36199464e+07]
+ [1.64915021e+07]
+ [1.99008684e+07]
+ [7.52352970e+03]]</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr"/>
@@ -38160,34 +38160,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-9.73246600e+06]
- [-1.00047029e+07]
- [-9.20014316e+06]
- [-8.40182929e+06]
- [-7.72634076e+06]
- [-6.92897974e+06]
- [-6.13859239e+06]
- [-5.34470686e+06]
- [-3.69586985e+06]
- [-2.08753334e+06]
- [-6.96268528e+05]
- [-5.84198515e+03]
- [-6.65010127e+03]
- [-7.54225547e+03]
- [-7.80684112e+03]
- [-8.04563456e+03]
- [-1.07154778e+04]
- [-1.19714639e+04]
- [-1.29019335e+04]
- [-2.50717395e+04]
- [-2.66486302e+04]
- [-2.79728221e+04]
- [-7.68711802e+04]
- [-7.85694146e+04]
- [-8.01585526e+04]
- [-8.49227030e+04]
- [-7.39549273e+04]
- [-6.25457361e+04]]</t>
+ [-9.73224221e+06]
+ [-1.00060912e+07]
+ [-9.20141982e+06]
+ [-8.40299518e+06]
+ [-7.73660368e+06]
+ [-6.93818352e+06]
+ [-6.14674630e+06]
+ [-5.34720747e+06]
+ [-3.69759902e+06]
+ [-2.08851003e+06]
+ [-6.96156708e+05]
+ [-5.84104693e+03]
+ [-6.64903327e+03]
+ [-7.53196895e+03]
+ [-7.79619374e+03]
+ [-8.03466150e+03]
+ [-1.07106867e+04]
+ [-1.19661113e+04]
+ [-1.28961648e+04]
+ [-2.50801815e+04]
+ [-2.66576032e+04]
+ [-2.79822410e+04]
+ [-7.68750182e+04]
+ [-7.85735322e+04]
+ [-8.01629522e+04]
+ [-8.49233149e+04]
+ [-7.39553213e+04]
+ [-6.25459048e+04]]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -38258,36 +38258,36 @@
       <c r="C1427" t="inlineStr"/>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[[6.96007091e-02]
- [1.34173642e-01]
- [4.21711041e-01]
- [2.84026581e-01]
- [2.79284227e-01]
- [2.74592082e-01]
- [2.73907770e-01]
- [2.69246288e-01]
- [2.64645158e-01]
- [2.75243432e-01]
- [2.65721030e-01]
- [2.56550465e-01]
- [2.64718121e-01]
- [2.57173426e-01]
- [2.51395565e-01]
- [2.63195959e-01]
- [2.60094571e-01]
- [2.56992195e-01]
- [2.87216281e-01]
- [2.59880111e-01]
- [2.32554422e-01]
- [3.42269075e-01]
- [2.67234076e-01]
- [1.92915603e-01]
- [3.86504488e-01]
- [2.69427400e-01]
- [1.66211280e-01]
- [1.45325890e-01]
- [1.77161654e-01]
- [3.24999166e-04]]</t>
+          <t>[[6.95983299e-02]
+ [1.34173333e-01]
+ [4.21703116e-01]
+ [2.84064604e-01]
+ [2.79321516e-01]
+ [2.74628645e-01]
+ [2.74256315e-01]
+ [2.69587917e-01]
+ [2.64979948e-01]
+ [2.75363942e-01]
+ [2.65836537e-01]
+ [2.56661131e-01]
+ [2.64672357e-01]
+ [2.57128993e-01]
+ [2.51352182e-01]
+ [2.62845694e-01]
+ [2.59749233e-01]
+ [2.56651790e-01]
+ [2.87090774e-01]
+ [2.59768509e-01]
+ [2.32456803e-01]
+ [3.42386930e-01]
+ [2.67325149e-01]
+ [1.92979971e-01]
+ [3.86523003e-01]
+ [2.69438811e-01]
+ [1.66217519e-01]
+ [1.45324790e-01]
+ [1.77160763e-01]
+ [3.25000560e-04]]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -38306,36 +38306,36 @@
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>[[0.10950779]
- [0.15823328]
- [0.36645851]
- [0.03893289]
- [0.0372363 ]
- [0.03564005]
- [0.03491397]
- [0.03352067]
- [0.03225933]
- [0.04269627]
- [0.03860513]
- [0.03533167]
- [0.03676286]
- [0.03543751]
- [0.0344803 ]
- [0.03424844]
- [0.03377788]
- [0.03330841]
- [0.05082124]
- [0.04728216]
- [0.04380908]
- [0.13077047]
- [0.12353505]
- [0.11642013]
- [0.81120835]
- [0.79791133]
- [0.784586  ]
- [0.97844941]
- [0.99790614]
- [0.01017285]]</t>
+          <t>[[0.10950361]
+ [0.15822762]
+ [0.36643854]
+ [0.03894059]
+ [0.0372437 ]
+ [0.03564718]
+ [0.0349815 ]
+ [0.03358582]
+ [0.03232229]
+ [0.0427343 ]
+ [0.03863825]
+ [0.03536048]
+ [0.03675769]
+ [0.03543292]
+ [0.03447574]
+ [0.03418771]
+ [0.03371741]
+ [0.03324819]
+ [0.05078244]
+ [0.04724416]
+ [0.04377194]
+ [0.13085355]
+ [0.12361615]
+ [0.11649913]
+ [0.8112964 ]
+ [0.79799818]
+ [0.78467158]
+ [0.97844957]
+ [0.99790625]
+ [0.01017291]]</t>
         </is>
       </c>
       <c r="E1428" t="inlineStr"/>
@@ -38354,36 +38354,36 @@
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>[[2.81751822e-01]
- [5.38084535e-01]
- [9.67459595e-01]
- [5.70341515e-01]
- [5.63116757e-01]
- [5.55892465e-01]
- [5.57224403e-01]
- [5.49897095e-01]
- [5.42555822e-01]
- [5.68561533e-01]
- [5.52760606e-01]
- [5.36762241e-01]
- [5.59954248e-01]
- [5.45020364e-01]
- [5.30123540e-01]
- [5.55550441e-01]
- [5.47759313e-01]
- [5.39978596e-01]
- [5.92769726e-01]
- [5.29760479e-01]
- [4.67437777e-01]
- [7.17748617e-01]
- [5.69908547e-01]
- [4.24778931e-01]
- [9.77473770e-01]
- [7.49707280e-01]
- [5.24777982e-01]
- [4.24256724e-01]
- [5.44640493e-01]
- [4.05259819e-10]]</t>
+          <t>[[2.81746579e-01]
+ [5.38076264e-01]
+ [9.67439491e-01]
+ [5.70423775e-01]
+ [5.63198178e-01]
+ [5.55973047e-01]
+ [5.57981769e-01]
+ [5.50646479e-01]
+ [5.43297197e-01]
+ [5.68845510e-01]
+ [5.53038206e-01]
+ [5.37033348e-01]
+ [5.59879508e-01]
+ [5.44947338e-01]
+ [5.30052224e-01]
+ [5.54791577e-01]
+ [5.47009026e-01]
+ [5.39236878e-01]
+ [5.92500446e-01]
+ [5.29514990e-01]
+ [4.67215872e-01]
+ [7.17989458e-01]
+ [5.70102953e-01]
+ [4.24927634e-01]
+ [9.77527153e-01]
+ [7.49743593e-01]
+ [5.24800115e-01]
+ [4.24250863e-01]
+ [5.44633674e-01]
+ [4.05282003e-10]]</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr"/>
@@ -43303,7 +43303,7 @@
       <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>[-0.05134579]</t>
+          <t>[-0.05134274]</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
@@ -43326,7 +43326,7 @@
       <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>[-0.13392836]</t>
+          <t>[-0.13393086]</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
@@ -43395,9 +43395,9 @@
       </c>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>[ 950.04387671 1091.35415377 1192.48656142 1273.22823698 1367.71014579
- 1446.51097802 1514.7639639  1551.90527311 1586.7282947  1619.55783383
- 1409.12044769 1207.07323401 1007.55623723]</t>
+          <t>[ 950.04387675 1091.35415395 1192.48656177 1273.22823752 1367.71014618
+ 1446.51097822 1514.7639639  1551.909589   1586.73717482 1619.57150793
+ 1409.12909086 1207.07754767 1007.55664453]</t>
         </is>
       </c>
       <c r="E1597" t="inlineStr"/>
@@ -43516,9 +43516,9 @@
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>[ 950.04387671 1091.35415377 1192.48656142 1273.22823698 1367.71014579
- 1446.51097802 1514.7639639  1551.90527311 1586.7282947  1619.55783383
- 1409.12044769 1207.07323401 1007.55623723]</t>
+          <t>[ 950.04387675 1091.35415395 1192.48656177 1273.22823752 1367.71014618
+ 1446.51097822 1514.7639639  1551.909589   1586.73717482 1619.57150793
+ 1409.12909086 1207.07754767 1007.55664453]</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr"/>
@@ -43706,10 +43706,10 @@
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>[ -950.04387671 -1091.35415377 -1192.48656142 -1273.22823698
- -1367.71014579 -1446.51097802 -1514.7639639  -1551.90527311
- -1586.7282947  -1619.55783383 -1409.12044769 -1207.07323401
- -1007.55623723]</t>
+          <t>[ -950.04387675 -1091.35415395 -1192.48656177 -1273.22823752
+ -1367.71014618 -1446.51097822 -1514.7639639  -1551.909589
+ -1586.73717482 -1619.57150793 -1409.12909086 -1207.07754767
+ -1007.55664453]</t>
         </is>
       </c>
       <c r="E1610" t="inlineStr"/>
@@ -43753,7 +43753,7 @@
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>[148.05908738 268.41350967 711.92946113 634.98633319]</t>
+          <t>[147.99333454 268.50355199 711.96671841 634.9897109 ]</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr"/>
@@ -43772,7 +43772,7 @@
       <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>[1.         1.         0.99999257 0.60000446]</t>
+          <t>[1.         1.         1.         0.60000026]</t>
         </is>
       </c>
       <c r="E1613" t="inlineStr"/>
@@ -43791,7 +43791,7 @@
       <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>[1.         1.         0.99999257 0.60000446]</t>
+          <t>[1.         1.         1.         0.60000026]</t>
         </is>
       </c>
       <c r="E1614" t="inlineStr"/>
@@ -43810,7 +43810,7 @@
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>[0.55160818 0.37702122 0.89693748]</t>
+          <t>[0.55117831 0.37712936 0.89698062]</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
@@ -43854,8 +43854,8 @@
       <c r="D1617" t="inlineStr">
         <is>
           <t>[5.         5.         5.         5.         5.         5.
- 5.         4.99998762 4.99997524 4.99996287 4.33330858 3.6666543
- 3.00000001]</t>
+ 5.         5.         5.         5.         4.33333376 3.66666752
+ 3.00000128]</t>
         </is>
       </c>
       <c r="E1617" t="inlineStr"/>
@@ -44107,8 +44107,8 @@
       <c r="D1628" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.          9.99997524  9.99995049  9.99992573  8.66661716  7.3333086
-  6.00000003]</t>
+ 10.         10.         10.         10.          8.66666752  7.33333503
+  6.00000255]</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr"/>
@@ -44361,7 +44361,7 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>[17589.35779277  9732.01691963  3677.71108563  2638.48929575]</t>
+          <t>[17597.11951627  9728.7655043   3677.54621408  2638.5006093 ]</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr">
@@ -44388,7 +44388,7 @@
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>[216917.0422353  120747.14965849  45842.08359787  21041.34075188]</t>
+          <t>[217011.4598477  120707.11032995  45840.37568999  21041.63330096]</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
@@ -44415,7 +44415,7 @@
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>[216917.0422353  120747.14965849  45842.08359787  21041.34075188]</t>
+          <t>[217011.4598477  120707.11032995  45840.37568999  21041.63330096]</t>
         </is>
       </c>
       <c r="E1641" t="inlineStr">
@@ -44442,7 +44442,7 @@
       </c>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>[5.19810789e+12 2.89353342e+12 1.09854023e+12 5.04225755e+11]</t>
+          <t>[5.20037047e+12 2.89257394e+12 1.09849930e+12 5.04232765e+11]</t>
         </is>
       </c>
       <c r="E1642" t="inlineStr">
@@ -44469,7 +44469,7 @@
       </c>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>[5.19810789e+12 2.89353342e+12 1.09854023e+12 5.04225755e+11]</t>
+          <t>[5.20037047e+12 2.89257394e+12 1.09849930e+12 5.04232765e+11]</t>
         </is>
       </c>
       <c r="E1643" t="inlineStr">
@@ -44496,7 +44496,7 @@
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>[4.12209956e+12 2.29457200e+12 8.71142399e+11 3.99851024e+11]</t>
+          <t>[4.12389379e+12 2.29381113e+12 8.71109943e+11 3.99856583e+11]</t>
         </is>
       </c>
       <c r="E1644" t="inlineStr">
@@ -44523,7 +44523,7 @@
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>[4.21503901e+11 2.33213921e+11 8.81311068e+10 6.32276371e+10]</t>
+          <t>[4.21689900e+11 2.33136005e+11 8.81271559e+10 6.32279082e+10]</t>
         </is>
       </c>
       <c r="E1645" t="inlineStr">
@@ -44631,10 +44631,10 @@
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.47449146 0.19237769 0.19237769 0.        ]
- [0.         0.         0.85758174 0.34559822 0.34559822 0.        ]
- [0.         0.         2.26934629 0.91029556 0.91029556 0.        ]
- [0.         0.         3.16317372 1.58658355 1.58658355 0.        ]]</t>
+          <t>[[0.         0.         0.47428217 0.19229399 0.19229399 0.        ]
+ [0.         0.         0.85786835 0.34571286 0.34571286 0.        ]
+ [0.         0.         2.26944803 0.91033285 0.91033285 0.        ]
+ [0.         0.         3.16316016 1.58656911 1.58656911 0.        ]]</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr"/>
@@ -44657,10 +44657,10 @@
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>[[0.77907696 0.77907696 0.         0.         0.         0.09618885]
- [1.41003417 1.41003417 0.         0.         0.         0.17279911]
- [3.73512895 3.73512895 0.         0.         0.         0.45514778]
- [5.20589182 5.20589182 0.         0.         0.         0.79329177]]</t>
+          <t>[[0.77873224 0.77873224 0.         0.         0.         0.096147  ]
+ [1.41050621 1.41050621 0.         0.         0.         0.17285643]
+ [3.73529653 3.73529653 0.         0.         0.         0.45516643]
+ [5.20586951 5.20586951 0.         0.         0.         0.79328455]]</t>
         </is>
       </c>
       <c r="E1650" t="inlineStr"/>
@@ -44683,7 +44683,7 @@
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>[605.87301533]</t>
+          <t>[605.88583523]</t>
         </is>
       </c>
       <c r="E1651" t="inlineStr"/>
@@ -44706,7 +44706,7 @@
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>[3418305.91604409]</t>
+          <t>[3418534.52261206]</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr"/>
@@ -44730,7 +44730,7 @@
       <c r="D1653" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
-  9.99998762  9.99996287  9.99993811  9.33327145  7.99996288  6.66665431]</t>
+ 10.         10.         10.          9.33333376  8.00000128  6.66666879]</t>
         </is>
       </c>
       <c r="E1653" t="inlineStr"/>
@@ -44753,8 +44753,8 @@
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>[0.07226844 0.07226844 0.07226844 0.03986387 0.03986387 0.03986387
- 0.01502952 0.01502952 0.01502952 0.01348054 0.01348054 0.01348054]</t>
+          <t>[0.07230055 0.07230055 0.07230055 0.0398505  0.0398505  0.0398505
+ 0.01502879 0.01502879 0.01502879 0.01348054 0.01348054 0.01348054]</t>
         </is>
       </c>
       <c r="E1654" t="inlineStr"/>
@@ -44801,18 +44801,18 @@
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>[[60629289.4976745 ]
- [55343784.91172423]
- [50040490.14832103]
- [75148344.60574715]
- [60404285.54647005]
- [45637071.01153603]
- [95526477.4357372 ]
- [70876655.82554354]
- [46194009.12613322]
- [30782160.32037291]
- [ 4797892.2396347 ]
- [-1391924.67324196]]</t>
+          <t>[[60602801.42389224]
+ [55320002.5789269 ]
+ [50019432.67963975]
+ [75174130.05973718]
+ [60424802.05241969]
+ [45652278.43490596]
+ [95531013.44455874]
+ [70879609.53831537]
+ [46195627.98605768]
+ [30781689.67063835]
+ [ 4797781.29727037]
+ [-1391974.445578  ]]</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr"/>
@@ -44835,18 +44835,18 @@
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>[[ 2846721.0072452 ]
- [ 2847339.18077347]
- [ 2847901.54030157]
- [ 5147653.05275571]
- [ 5149232.12851298]
- [ 5150511.61893026]
- [13616592.7053456 ]
- [13617399.9907678 ]
- [13618030.98723754]
- [16490511.08660707]
- [19900071.05289894]
- [24992651.5576681 ]]</t>
+          <t>[[ 2845465.5151076 ]
+ [ 2846083.41571608]
+ [ 2846645.52676699]
+ [ 5149371.32469951]
+ [ 5150950.93295392]
+ [ 5152230.85650375]
+ [13617233.65000426]
+ [13618000.6882245 ]
+ [13618591.42500877]
+ [16490387.13823263]
+ [19899963.89802152]
+ [24992595.96932322]]</t>
         </is>
       </c>
       <c r="E1657" t="inlineStr"/>
@@ -44869,18 +44869,18 @@
       </c>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>[[-10715.47776888]
- [-11971.46392797]
- [-12901.93349322]
- [-25071.73945223]
- [-26648.63018159]
- [-27972.82210456]
- [-76871.18021698]
- [-78569.41462158]
- [-80158.55261501]
- [-84922.70298716]
- [-73954.92733205]
- [-62545.73610617]]</t>
+          <t>[[-10710.68667925]
+ [-11966.11126492]
+ [-12896.16480149]
+ [-25080.18150347]
+ [-26657.60319337]
+ [-27982.24098885]
+ [-76875.01817891]
+ [-78573.53216452]
+ [-80162.9521728 ]
+ [-84923.31492872]
+ [-73955.32134316]
+ [-62545.90478613]]</t>
         </is>
       </c>
       <c r="E1658" t="inlineStr"/>
@@ -44933,18 +44933,18 @@
       <c r="C1660" t="inlineStr"/>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>[[0.30946395]
- [0.28267734]
- [0.25582021]
- [0.3850209 ]
- [0.31067239]
- [0.23661747]
- [0.50072016]
- [0.38017559]
- [0.26402961]
- [0.21377166]
- [0.17705375]
- [0.22031586]]</t>
+          <t>[[0.30932874]
+ [0.28255584]
+ [0.25571251]
+ [0.38515296]
+ [0.31077787]
+ [0.23669632]
+ [0.50074393]
+ [0.38019153]
+ [0.2640392 ]
+ [0.21376916]
+ [0.17705274]
+ [0.22031538]]</t>
         </is>
       </c>
       <c r="E1660" t="inlineStr"/>
@@ -44963,18 +44963,18 @@
       <c r="C1661" t="inlineStr"/>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>[[0.05081052]
- [0.04726871]
- [0.04379356]
- [0.13072033]
- [0.12348023]
- [0.11636195]
- [0.81100667]
- [0.79770254]
- [0.78437107]
- [0.97823572]
- [0.99779497]
- [1.03933989]]</t>
+          <t>[[0.05077172]
+ [0.04723072]
+ [0.04375643]
+ [0.13080339]
+ [0.1235613 ]
+ [0.11644093]
+ [0.8110947 ]
+ [0.79778936]
+ [0.78445663]
+ [0.97823587]
+ [0.99779507]
+ [1.03934042]]</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr"/>
@@ -44993,18 +44993,18 @@
       <c r="C1662" t="inlineStr"/>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>[[0.87438151]
- [0.79066281]
- [0.70719818]
- [1.08697952]
- [0.88447033]
- [0.68340495]
- [1.55574218]
- [1.24474076]
- [0.93511946]
- [0.84796668]
- [0.65431219]
- [0.78246326]]</t>
+          <t>[[0.87398776]
+ [0.79030187]
+ [0.70687007]
+ [1.08733226]
+ [0.88476114]
+ [0.68363396]
+ [1.55581126]
+ [1.2447891 ]
+ [0.9351509 ]
+ [0.84795174]
+ [0.65430366]
+ [0.78245707]]</t>
         </is>
       </c>
       <c r="E1662" t="inlineStr"/>
@@ -45120,7 +45120,7 @@
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>[0.2832068]</t>
+          <t>[0.28320957]</t>
         </is>
       </c>
       <c r="E1667" t="inlineStr"/>
@@ -45143,7 +45143,7 @@
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>[0.28676649]</t>
+          <t>[0.28676971]</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr"/>
@@ -45166,7 +45166,7 @@
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>[0.2832068  0.28676649 0.84341632 1.05381368 1.23215857 2.85301305]</t>
+          <t>[0.28320957 0.28676971 0.8434047  1.05385222 1.23221097 2.85343204]</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr"/>
@@ -45185,9 +45185,9 @@
       <c r="C1670" t="inlineStr"/>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>[[   0.85399317    0.41442018   -1.18957336    1.6509539    -0.72979389]
- [  20.33302953   22.84721998 -107.88441048  130.21601036  -64.51184938]
- [ -62.98143075  152.09740957 -260.46875967  328.18854154 -155.83576069]]</t>
+          <t>[[   0.85345837    0.4146359    -1.18711627    1.64737747   -0.72835548]
+ [  20.30914364   22.8877724  -107.90353506  130.20468851  -64.49806949]
+ [ -62.97927157  152.0327359  -260.33751313  328.10894211 -155.8248933 ]]</t>
         </is>
       </c>
       <c r="E1670" t="inlineStr"/>
@@ -45206,9 +45206,9 @@
       <c r="C1671" t="inlineStr"/>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>[[   0.84631099    0.38380816   -1.08504392    1.52222841   -0.66730365]
- [   9.87792133   16.2860291   -66.24656779   80.70906109  -39.62644373]
- [ -61.47501569  145.46177818 -247.58728661  312.79970606 -148.19918195]]</t>
+          <t>[[   0.84578306    0.38400312   -1.08256522    1.51864292   -0.66586389]
+ [   9.86786833   16.30561474  -66.25742493   80.70480904  -39.62086718]
+ [ -61.47312604  145.39986949 -247.46346979  312.72809554 -148.1913692 ]]</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr"/>
@@ -45227,7 +45227,7 @@
       <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>[[  4.20467965 -16.78425253  31.30824778 -25.50854707   7.77987217]
+          <t>[[  4.20151657 -16.76800599  31.27787519 -25.4836855    7.77229972]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -45252,7 +45252,7 @@
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>[0.28676649 1.23215857 2.90339118]</t>
+          <t>[0.28676971 1.23221097 2.90379634]</t>
         </is>
       </c>
       <c r="E1673" t="inlineStr"/>
@@ -45275,7 +45275,7 @@
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>[0.2832068  1.05381368 2.85301305]</t>
+          <t>[0.28320957 1.05385222 2.85343204]</t>
         </is>
       </c>
       <c r="E1674" t="inlineStr"/>
@@ -45298,7 +45298,7 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>[4.91559382 0.         0.        ]</t>
+          <t>[4.91549796 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr"/>
@@ -45322,18 +45322,18 @@
       <c r="D1676" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00522723]
- [0.01968424]
- [0.04253722]
- [0.09430393]
- [0.16939211]
- [0.2633882 ]
- [0.331899  ]
- [0.41163413]
- [0.50007127]
- [0.58936341]
- [0.68454503]
- [0.78332726]]</t>
+ [0.00522495]
+ [0.01967564]
+ [0.04251865]
+ [0.09427352]
+ [0.16935759]
+ [0.26335587]
+ [0.33186976]
+ [0.41160844]
+ [0.50004944]
+ [0.58934516]
+ [0.68453028]
+ [0.78331597]]</t>
         </is>
       </c>
       <c r="E1676" t="inlineStr"/>
@@ -45356,7 +45356,7 @@
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>[0.78332726]</t>
+          <t>[0.78331597]</t>
         </is>
       </c>
       <c r="E1677" t="inlineStr"/>
@@ -45379,18 +45379,18 @@
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>[[-17582294.14733629]
- [-15566019.83222635]
- [-13548699.99818555]
- [-11943696.95017379]
- [-10337270.85792425]
- [ -8729637.12106814]
- [ -8355526.56611178]
- [ -7981062.3223679 ]
- [ -7606265.6116423 ]
- [ -7311825.00150832]
- [ -7059408.20683794]
- [ -6848965.00832183]]</t>
+          <t>[[-17582431.61079418]
+ [-15565273.13808548]
+ [-13547069.14644591]
+ [-11942595.00421067]
+ [-10336697.81773765]
+ [ -8729592.98665805]
+ [ -8355499.40328269]
+ [ -7981051.18100381]
+ [ -7606269.56425592]
+ [ -7311827.11587623]
+ [ -7059409.21740272]
+ [ -6848965.66278679]]</t>
         </is>
       </c>
       <c r="E1678" t="inlineStr"/>
@@ -45413,18 +45413,18 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>[[2938166.2404156 ]
- [2938967.7666175 ]
- [2939697.65734109]
- [2940217.59055548]
- [2941348.98811392]
- [2942267.92974575]
- [2939000.42985485]
- [2939212.84191466]
- [2939378.06229214]
- [2939129.81486916]
- [2939007.92996238]
- [2938833.81991283]]</t>
+          <t>[[2938166.24120986]
+ [2938967.76872938]
+ [2939697.66044292]
+ [2940216.19293037]
+ [2941347.59267634]
+ [2942266.53715669]
+ [2939000.42944887]
+ [2939212.84466304]
+ [2939378.06787257]
+ [2939129.88052706]
+ [2939007.98316991]
+ [2938833.86116442]]</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr"/>
@@ -45447,18 +45447,18 @@
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>[[8740.29726187]
- [8744.2592017 ]
- [8748.00857071]
- [8750.98398618]
- [8757.5677563 ]
- [8763.51459614]
- [8745.69872431]
- [8747.50835924]
- [8749.17606213]
- [8748.19122657]
- [8748.29900755]
- [8748.54428052]]</t>
+          <t>[[8740.29726686]
+ [8744.25921525]
+ [8748.00859158]
+ [8750.97695565]
+ [8757.5607431 ]
+ [8763.5076049 ]
+ [8745.69894692]
+ [8747.50860032]
+ [8749.17631737]
+ [8748.19184101]
+ [8748.2995012 ]
+ [8748.54465629]]</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr"/>
@@ -45481,18 +45481,18 @@
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>[[-1881240.78933119]
- [-1778526.32346697]
- [-1675282.14003746]
- [-1526726.92078716]
- [-1376969.00866229]
- [-1226589.41883824]
- [-1136100.01000572]
- [-1044966.26309677]
- [ -953315.35645491]
- [ -867324.42047796]
- [ -780693.55788121]
- [ -693050.98848595]]</t>
+          <t>[[-1881239.11953007]
+ [-1778525.18274311]
+ [-1675281.85345012]
+ [-1526727.85245867]
+ [-1376970.53606477]
+ [-1226590.95817441]
+ [-1136101.30475747]
+ [-1044967.28660644]
+ [ -953316.09022877]
+ [ -867324.88739678]
+ [ -780693.78188688]
+ [ -693050.98892473]]</t>
         </is>
       </c>
       <c r="E1681" t="inlineStr"/>
@@ -45515,18 +45515,18 @@
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>[[ 3.80579956e+08]
- [ 3.46209135e+08]
- [ 3.11736772e+08]
- [ 2.62298485e+08]
- [ 2.12663421e+08]
- [ 1.62953524e+08]
- [ 1.33111772e+08]
- [ 1.03202745e+08]
- [ 7.32541264e+07]
- [ 4.52816665e+07]
- [ 1.72924605e+07]
- [-1.06981558e+07]]</t>
+          <t>[[ 3.80579426e+08]
+ [ 3.46208714e+08]
+ [ 3.11736524e+08]
+ [ 2.62298481e+08]
+ [ 2.12663548e+08]
+ [ 1.62953683e+08]
+ [ 1.33111907e+08]
+ [ 1.03202853e+08]
+ [ 7.32542042e+07]
+ [ 4.52817167e+07]
+ [ 1.72924850e+07]
+ [-1.06981559e+07]]</t>
         </is>
       </c>
       <c r="E1682" t="inlineStr"/>
@@ -45549,18 +45549,18 @@
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>[[6203307.55046635]
- [6203237.64892613]
- [6203167.70061161]
- [6203477.2159176 ]
- [6203376.57328004]
- [6203275.84467953]
- [6204076.23119362]
- [6204014.14537079]
- [6203952.00171016]
- [6204135.30099543]
- [6204318.90438459]
- [6204587.77699562]]</t>
+          <t>[[6203307.28434319]
+ [6203237.38297843]
+ [6203167.43486067]
+ [6203477.39589399]
+ [6203376.75278836]
+ [6203276.02369   ]
+ [6204076.29078821]
+ [6204014.20135077]
+ [6203952.05429737]
+ [6204135.29076689]
+ [6204318.89590241]
+ [6204587.77215899]]</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr"/>
@@ -45585,7 +45585,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-1.95971748e+07]]</t>
+ [-1.95981964e+07]]</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr"/>
@@ -45608,8 +45608,8 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>[[-1.98319860e+06]
- [ 4.14798153e+08]
+          <t>[[-1.98319674e+06]
+ [ 4.14797583e+08]
  [ 6.20262774e+06]]</t>
         </is>
       </c>
@@ -45633,7 +45633,7 @@
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>[2228975.27878078]</t>
+          <t>[2229079.32704321]</t>
         </is>
       </c>
       <c r="E1686" t="inlineStr"/>
@@ -45656,7 +45656,7 @@
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>[-2.87556041e+00 -4.07919986e-02  9.57775582e+01]</t>
+          <t>[-2.87542619e+00 -4.07901051e-02  9.57706680e+01]</t>
         </is>
       </c>
       <c r="E1687" t="inlineStr"/>
@@ -45679,8 +45679,8 @@
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>[2.82800731e+10 2.81491400e+10 2.97425717e+08 5.41567879e+02
- 1.42357739e+07 1.69909286e+05]</t>
+          <t>[2.82795308e+10 2.81485977e+10 2.97428230e+08 5.41568672e+02
+ 1.42357739e+07 1.69909329e+05]</t>
         </is>
       </c>
       <c r="E1688" t="inlineStr"/>
@@ -51106,7 +51106,7 @@
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>[2.66845914]</t>
+          <t>[2.66842097]</t>
         </is>
       </c>
       <c r="E1860" t="inlineStr"/>
@@ -53972,8 +53972,8 @@
       </c>
       <c r="D1982" t="inlineStr">
         <is>
-          <t>[[0.05045858 0.05942742 0.14509201 0.05637616 0.13109693 0.04393484
-  0.12102924]]</t>
+          <t>[[0.05031772 0.0595708  0.14492055 0.05628306 0.13110318 0.04395645
+  0.12123106]]</t>
         </is>
       </c>
       <c r="E1982" t="inlineStr">
@@ -54931,7 +54931,7 @@
       </c>
       <c r="D2018" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          9.99992573  6.00000003]</t>
+          <t>[10.         10.         10.         10.          6.00000255]</t>
         </is>
       </c>
       <c r="E2018" t="inlineStr">
@@ -54981,7 +54981,7 @@
       </c>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>[[0.08000787 0.05507333 0.01943857 0.008654   0.01654327]]</t>
+          <t>[[0.08002922 0.055112   0.01937491 0.00871629 0.01648097]]</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr">
